--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896D311-3B0D-7B43-BBF7-4C3E8BDAA5DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2A7E6F06-D440-6C4F-91FD-AB1CF4012569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="switch-case　メソッド" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4537,13 +4538,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>② また、keisan2()というメソッドを作成し、数字1、数字2、符号の引数を3つ使ってそのメソッドを呼び出すコードを作成してください。</t>
-    <rPh sb="0" eb="762">
-      <t>ケイサnサクセ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・符号が「"+"」だった場合</t>
     <rPh sb="0" eb="1">
       <t>X</t>
@@ -4582,6 +4576,13 @@
     <t>「計算できません。」と出力する。</t>
     <rPh sb="0" eb="1">
       <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>② また、keisan2()というメソッドを作成し、数字1、数字2、符号の3つの引数を使ってそのメソッドを呼び出すコードを作成してください。</t>
+    <rPh sb="0" eb="139">
+      <t>ケイサnサクセ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9320,7 +9321,7 @@
     <row r="18" spans="2:8" ht="24">
       <c r="B18" s="41"/>
       <c r="C18" s="49" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="24">
@@ -9332,7 +9333,7 @@
     <row r="20" spans="2:8" ht="24">
       <c r="B20" s="41"/>
       <c r="C20" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="24">
@@ -9349,7 +9350,7 @@
     <row r="23" spans="2:8" ht="24">
       <c r="B23" s="41"/>
       <c r="C23" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="24">
@@ -9365,7 +9366,7 @@
     <row r="26" spans="2:8" ht="24">
       <c r="B26" s="41"/>
       <c r="C26" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="24">
@@ -9381,7 +9382,7 @@
     <row r="29" spans="2:8" ht="24">
       <c r="B29" s="41"/>
       <c r="C29" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="24">
@@ -9397,13 +9398,13 @@
     <row r="32" spans="2:8" ht="24">
       <c r="B32" s="41"/>
       <c r="C32" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="24">
       <c r="B33" s="41"/>
       <c r="C33" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="24">

--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2A7E6F06-D440-6C4F-91FD-AB1CF4012569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6623119C-3AA4-764C-894A-2DD8E85063D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
+    <workbookView xWindow="220" yWindow="1060" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
-    <sheet name="変数_echo_if" sheetId="1" r:id="rId1"/>
-    <sheet name="switch-case　メソッド" sheetId="2" r:id="rId2"/>
+    <sheet name="0705" sheetId="1" r:id="rId1"/>
+    <sheet name="0719" sheetId="2" r:id="rId2"/>
+    <sheet name="0726" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -4581,8 +4582,297 @@
   </si>
   <si>
     <t>② また、keisan2()というメソッドを作成し、数字1、数字2、符号の3つの引数を使ってそのメソッドを呼び出すコードを作成してください。</t>
-    <rPh sb="0" eb="139">
+    <rPh sb="0" eb="70">
       <t>ケイサnサクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正の整数値を入力し、それが偶数か奇数かを判定するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>整数値を入力し、以下の４つの分類から該当するものを表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>“正の偶数”、“正の奇数”、“負の偶数”、“負の奇数”</t>
+  </si>
+  <si>
+    <t>試験の点数を入力し、対応する成績を表示するプログラムを３種類作成しなさい。</t>
+  </si>
+  <si>
+    <t>試験は 100 点満点（ 0 点～ 100 点）とし、点数と成績の対応を以下のようにします。</t>
+  </si>
+  <si>
+    <t>ケース1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60 点以上：“合格”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60 点未満：“不合格”</t>
+  </si>
+  <si>
+    <t>ケース2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    80 点以上：“たいへんよくできました。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60 点以上、80 点未満：“よくできました。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60 点未満：“ざんねんでした。”</t>
+  </si>
+  <si>
+    <t>ケース3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    80 点以上：“優”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    70 点以上、80 点未満：“良”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60 点以上、70 点未満：“可”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60 点未満：“不可”</t>
+  </si>
+  <si>
+    <t>中間試験と、期末試験の点数（それぞれ 0 ～ 100 点）を入力し、次の条件に従って合格、不合格を判定するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>両方とも 60 点以上の場合、合格</t>
+  </si>
+  <si>
+    <t>合計が 130 点以上の場合、合格</t>
+  </si>
+  <si>
+    <t>合計が 100 点以上で、どちらかの試験が 90 点以上であれば合格</t>
+  </si>
+  <si>
+    <t>上記以外は不合格</t>
+  </si>
+  <si>
+    <t>曜日と、午前、午後、夜間の区別を入力し、病院が開いているか、休診であるかを表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>開いているか、休診であるかは、次の表に従います。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>日曜</t>
+  </si>
+  <si>
+    <t>火曜</t>
+  </si>
+  <si>
+    <t>水曜</t>
+  </si>
+  <si>
+    <t>木曜</t>
+  </si>
+  <si>
+    <t>金曜</t>
+  </si>
+  <si>
+    <t>土曜</t>
+  </si>
+  <si>
+    <t>休診</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>整数値 x, y を入力し、以下の条件に該当する場合、そうであることを示す文を表示しなさい。</t>
+  </si>
+  <si>
+    <t>x は y より小さく、かつ、x と y は共に偶数である。</t>
+  </si>
+  <si>
+    <t>x と y は等しく、かつ、負の数である。</t>
+  </si>
+  <si>
+    <t>x は y より小さい、または、x は偶数である。</t>
+  </si>
+  <si>
+    <t>x は 10 以下または 100 以上で、かつ、y は 10 以上かつ 100 以下である。</t>
+  </si>
+  <si>
+    <t>x も y も負の数である、ではない。（ x も y も負の数である、の否定）</t>
+  </si>
+  <si>
+    <t>月を表す数値を入力し、その月の初めから年末までにある祝日を表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>表示する祝日は以下の日とします。</t>
+  </si>
+  <si>
+    <t>１月：元日、成人の日</t>
+  </si>
+  <si>
+    <t>２月：建国記念の日</t>
+  </si>
+  <si>
+    <t>３月：春分の日</t>
+  </si>
+  <si>
+    <t>４月：昭和の日</t>
+  </si>
+  <si>
+    <t>５月：憲法記念日、みどりの日、こどもの日</t>
+  </si>
+  <si>
+    <t>７月：海の日</t>
+  </si>
+  <si>
+    <t>９月：敬老の日、秋分の日</t>
+  </si>
+  <si>
+    <t>１０月：体育の日</t>
+  </si>
+  <si>
+    <t>１１月：文化の日、勤労感謝の日</t>
+  </si>
+  <si>
+    <t>１２月：天皇誕生日</t>
+  </si>
+  <si>
+    <t>※  0 は“正の偶数”であるとする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※  switch 文を使用すること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 7/26</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int 型の変数 x、y にそれぞれ数値を入力し、x が y より大きい場合に、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>“xはyより大きい。”という文を表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>x が y より小さい場合には“xはyより小さい”と表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x が y より小さい場合には“xはyより小さい”、x と y が等しい場合には“xとyは等しい”と表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>変数 x、y にそれぞれ数値を入力し、x が ｙ より大きい場合には“xはyより大きい”、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊病院の日程表</t>
+    <rPh sb="0" eb="1">
+      <t>ビョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜間</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>〜</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊エラーの場合</t>
+    <rPh sb="0" eb="1">
+      <t>ビョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊ワードプレスの固定ページで作成すること。</t>
+    <rPh sb="0" eb="2">
+      <t>コテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験結果の画面作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4776,7 +5066,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4792,6 +5082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4988,7 +5284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5138,6 +5434,27 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7738,6 +8055,1244 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481188</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5B727-3652-EE4F-8F7A-14DD1A0D1DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892300" y="18821400"/>
+          <a:ext cx="6589888" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>病院の時間帯チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>希望の曜日は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　曜日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>希望の日時は？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83255</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344311</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1CF582-2017-9C45-8D6B-03E0012AAE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988255" y="20040600"/>
+          <a:ext cx="1594556" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>水</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108655</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>578555</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F6F179-D7A1-7942-AA46-947333665595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013655" y="21399500"/>
+          <a:ext cx="469900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>337256</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71B2BD0-9A13-7B4F-9E52-26E8D3A228C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="20802600"/>
+          <a:ext cx="1594556" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>午後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>802923</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>725311</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F771FB-CABA-064E-AACD-46740806ADDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10708923" y="18859500"/>
+          <a:ext cx="6589888" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>病院の時間帯チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>その時間帯は開いていますので時間内に来院ください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>280810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>297743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230AE7A0-1522-A74B-9C85-EA8F8BA9FA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="20270610"/>
+          <a:ext cx="1566333" cy="931333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>697088</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A5588F-CB65-CF44-8358-01039AE07BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10680700" y="23571200"/>
+          <a:ext cx="6589888" cy="3873500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>病院の時間帯チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>申し訳ありません。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>その時間帯は休診ですので別の曜日、時間帯に来院ください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452401</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>239202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660522</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>256135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43263638-A6AD-824C-9A5A-E8DF4CA24F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1631066">
+          <a:off x="8453401" y="22667402"/>
+          <a:ext cx="2113121" cy="931333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595488</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BEC51C-059D-4B4D-9B36-8D9E68891215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="24333200"/>
+          <a:ext cx="6589888" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>病院の時間帯チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力エラーです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>曜日か時間帯をきちんと入力してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8037,7 +9592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
   <dimension ref="A2:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0"/>
+    <sheetView topLeftCell="A184" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9236,7 +10793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BF504-F0D1-5B46-AC03-CFC3B1E7E9EE}">
   <dimension ref="B2:K118"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A78" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -9717,4 +11276,618 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992BB4A-04F6-964A-9E3D-5EA7D0576D9A}">
+  <dimension ref="B1:K119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="50"/>
+    <col min="2" max="2" width="10.7109375" style="51"/>
+    <col min="3" max="3" width="15" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" customFormat="1">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="2:3" customFormat="1" ht="38">
+      <c r="B2" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:3" customFormat="1">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="51"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="51"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="51"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="51"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="51"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="51"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="51"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" s="51"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="51"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="C50" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="C51" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="C52" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="C53" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="C54" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="C55" s="51"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="C58" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="C59" s="51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="C60" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="C61" s="51"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="C62" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" s="55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="25">
+      <c r="C63" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="25">
+      <c r="C64" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="25">
+      <c r="C65" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66" s="51"/>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="51"/>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="51"/>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="C69" s="51"/>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="51"/>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71" s="51"/>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72" s="51"/>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" s="51"/>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74" s="51"/>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="51"/>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="51"/>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="51"/>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="51"/>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" s="51"/>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="51"/>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" s="51"/>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="51"/>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+    </row>
+    <row r="87" spans="3:9">
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="C89" s="51"/>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90" s="50"/>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="C91" s="50"/>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="C92" s="50"/>
+    </row>
+    <row r="93" spans="3:9">
+      <c r="C93" s="50"/>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94" s="50"/>
+    </row>
+    <row r="95" spans="3:9">
+      <c r="C95" s="50"/>
+    </row>
+    <row r="96" spans="3:9">
+      <c r="C96" s="51"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="C97" s="51"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="C98" s="51"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="C99" s="51"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="C105" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="C106" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="C107" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="C108" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="C109" s="51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="C110" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="C111" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="C112" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="C113" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="C114" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="C115" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="C116" s="51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6623119C-3AA4-764C-894A-2DD8E85063D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7C368E15-BFAF-B241-9F69-DD4814236816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1060" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
+    <workbookView xWindow="220" yWindow="1060" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="0705" sheetId="1" r:id="rId1"/>
@@ -5502,8 +5502,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1006714" y="22366475"/>
-          <a:ext cx="10085029" cy="5746701"/>
+          <a:off x="1003300" y="22098000"/>
+          <a:ext cx="10058400" cy="5700817"/>
           <a:chOff x="1079500" y="21678900"/>
           <a:chExt cx="10058400" cy="5700817"/>
         </a:xfrm>
@@ -5825,7 +5825,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>56444</xdr:colOff>
+      <xdr:colOff>28222</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
@@ -5842,10 +5842,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1873956" y="26303112"/>
-          <a:ext cx="15454488" cy="9429043"/>
+          <a:off x="1866900" y="25910823"/>
+          <a:ext cx="15306322" cy="9429043"/>
           <a:chOff x="1873956" y="25371779"/>
-          <a:chExt cx="15454488" cy="9429043"/>
+          <a:chExt cx="15426266" cy="9429043"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6241,7 +6241,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10738556" y="25371779"/>
+            <a:off x="10710334" y="25371779"/>
             <a:ext cx="6589888" cy="3911600"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6493,7 +6493,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8805333" y="26782889"/>
+            <a:off x="8777111" y="26782889"/>
             <a:ext cx="1566333" cy="931333"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
@@ -6883,8 +6883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1890889" y="13885333"/>
-          <a:ext cx="15525075" cy="8748889"/>
+          <a:off x="1883833" y="13682133"/>
+          <a:ext cx="15405131" cy="8590845"/>
           <a:chOff x="1890889" y="12954000"/>
           <a:chExt cx="15525075" cy="8748889"/>
         </a:xfrm>
@@ -9592,9 +9592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
   <dimension ref="A2:J215"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10793,9 +10791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BF504-F0D1-5B46-AC03-CFC3B1E7E9EE}">
   <dimension ref="B2:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -11282,9 +11278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992BB4A-04F6-964A-9E3D-5EA7D0576D9A}">
   <dimension ref="B1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>

--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7C368E15-BFAF-B241-9F69-DD4814236816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D140AE-0B9B-BE4A-9774-BBFE3437B690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1060" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="0705" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="0726" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="190">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -4594,51 +4593,6 @@
     <t>整数値を入力し、以下の４つの分類から該当するものを表示するプログラムを作成しなさい。</t>
   </si>
   <si>
-    <t>“正の偶数”、“正の奇数”、“負の偶数”、“負の奇数”</t>
-  </si>
-  <si>
-    <t>試験の点数を入力し、対応する成績を表示するプログラムを３種類作成しなさい。</t>
-  </si>
-  <si>
-    <t>試験は 100 点満点（ 0 点～ 100 点）とし、点数と成績の対応を以下のようにします。</t>
-  </si>
-  <si>
-    <t>ケース1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60 点以上：“合格”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60 点未満：“不合格”</t>
-  </si>
-  <si>
-    <t>ケース2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    80 点以上：“たいへんよくできました。”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60 点以上、80 点未満：“よくできました。”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60 点未満：“ざんねんでした。”</t>
-  </si>
-  <si>
-    <t>ケース3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    80 点以上：“優”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    70 点以上、80 点未満：“良”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60 点以上、70 点未満：“可”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60 点未満：“不可”</t>
-  </si>
-  <si>
     <t>中間試験と、期末試験の点数（それぞれ 0 ～ 100 点）を入力し、次の条件に従って合格、不合格を判定するプログラムを作成しなさい。</t>
   </si>
   <si>
@@ -4687,9 +4641,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>整数値 x, y を入力し、以下の条件に該当する場合、そうであることを示す文を表示しなさい。</t>
-  </si>
-  <si>
     <t>x は y より小さく、かつ、x と y は共に偶数である。</t>
   </si>
   <si>
@@ -4702,50 +4653,7 @@
     <t>x は 10 以下または 100 以上で、かつ、y は 10 以上かつ 100 以下である。</t>
   </si>
   <si>
-    <t>x も y も負の数である、ではない。（ x も y も負の数である、の否定）</t>
-  </si>
-  <si>
-    <t>月を表す数値を入力し、その月の初めから年末までにある祝日を表示するプログラムを作成しなさい。</t>
-  </si>
-  <si>
-    <t>表示する祝日は以下の日とします。</t>
-  </si>
-  <si>
-    <t>１月：元日、成人の日</t>
-  </si>
-  <si>
-    <t>２月：建国記念の日</t>
-  </si>
-  <si>
-    <t>３月：春分の日</t>
-  </si>
-  <si>
-    <t>４月：昭和の日</t>
-  </si>
-  <si>
-    <t>５月：憲法記念日、みどりの日、こどもの日</t>
-  </si>
-  <si>
-    <t>７月：海の日</t>
-  </si>
-  <si>
-    <t>９月：敬老の日、秋分の日</t>
-  </si>
-  <si>
-    <t>１０月：体育の日</t>
-  </si>
-  <si>
-    <t>１１月：文化の日、勤労感謝の日</t>
-  </si>
-  <si>
-    <t>１２月：天皇誕生日</t>
-  </si>
-  <si>
     <t>※  0 は“正の偶数”であるとする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※  switch 文を使用すること。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4777,16 +4685,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int 型の変数 x、y にそれぞれ数値を入力し、x が y より大きい場合に、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>“xはyより大きい。”という文を表示するプログラムを作成しなさい。</t>
-  </si>
-  <si>
-    <t>x が y より小さい場合には“xはyより小さい”と表示するプログラムを作成しなさい。</t>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4803,10 +4701,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4816,17 +4710,6 @@
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x が y より小さい場合には“xはyより小さい”、x と y が等しい場合には“xとyは等しい”と表示するプログラムを作成しなさい。</t>
-  </si>
-  <si>
-    <t>変数 x、y にそれぞれ数値を入力し、x が ｙ より大きい場合には“xはyより大きい”、</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4866,13 +4749,152 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>受験結果の画面作成</t>
+    <t>月を表す数値を入力し、その月の初めから年末までにある祝日を表示する画面を作成しなさい。</t>
     <rPh sb="0" eb="2">
       <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊ワードプレスの固定画面を使って作成すること。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカッt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元日、成人の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>建国記念の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春分の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昭和の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>憲法記念日、みどりの日、こどもの日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敬老の日、秋分の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体育の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文化の日、勤労感謝の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天皇誕生日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>＊表示する祝日は以下の日とします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・開いている場合</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・休診の場合</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>という文を表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x、y にそれぞれ数値を入力し、x が y より大きい場合に、「xはyより大きい。」</t>
+    <rPh sb="0" eb="2">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x、y にそれぞれ数値を入力し、x が ｙ より大きい場合には「xはyより大きい」、</t>
+    <rPh sb="0" eb="2">
+      <t>「</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x が y より小さい場合には「xはyより小さい」と表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x が y より小さい場合には「xはyより小さい」、x と y が等しい場合には「xとyは等しい」と表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>“正の偶数”、“正の奇数”、“負の偶数”、“負の奇数”</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x も y も負の数ではない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整数値 x, y を入力し、以下の条件に該当する場合、そうであることを示す文を表示しなさい。(該当するものは全て表示させること)</t>
+    <rPh sb="0" eb="1">
+      <t>スベt</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5284,7 +5306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5455,6 +5477,18 @@
     </xf>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8061,13 +8095,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>481188</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8395,13 +8429,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>83255</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>344311</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8478,13 +8512,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>108655</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>578555</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8553,13 +8587,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>337256</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8636,13 +8670,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>802923</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>725311</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8810,13 +8844,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>280810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>436033</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>297743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8870,13 +8904,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>697088</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9076,13 +9110,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>452401</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>239202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>660522</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>256135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9136,13 +9170,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>595488</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9285,6 +9319,1138 @@
             <a:t>曜日か時間帯をきちんと入力してください。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CD598A-DC68-BA49-8993-E6C3B18386DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="27952700"/>
+          <a:ext cx="7137400" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>祝日チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>月を入力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>してください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489656</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C18E36-50CA-8E46-8471-E4C5FE4F9FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="29184600"/>
+          <a:ext cx="1594556" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A730EC30-5543-9C43-ACBB-FC6986F3BA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="29730700"/>
+          <a:ext cx="469900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>531988</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09781734-FC8F-BE4B-AEBA-A5B2BBE3D264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="27914600"/>
+          <a:ext cx="6589888" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>祝日チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>月から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>月にある祝日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文化の日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>勤労感謝の日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>天皇誕生日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>合計で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日あります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="右矢印 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD94ADA8-8C53-554D-90E5-44F0C661D920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="29273500"/>
+          <a:ext cx="1566333" cy="931333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>474822</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右矢印 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463A0C3D-3E4B-8142-BDDB-D83511A81326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1631066">
+          <a:off x="8877301" y="32156400"/>
+          <a:ext cx="2113121" cy="931333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>874888</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78E541F-F43F-A046-9DB3-FBD42B02B491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="33185100"/>
+          <a:ext cx="6589888" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>祝日チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>入力のエラーです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>もう一度、入力しなおしてください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11276,7 +12442,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992BB4A-04F6-964A-9E3D-5EA7D0576D9A}">
-  <dimension ref="B1:K119"/>
+  <dimension ref="B1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11285,7 +12451,8 @@
     <col min="1" max="1" width="10.7109375" style="50"/>
     <col min="2" max="2" width="10.7109375" style="51"/>
     <col min="3" max="3" width="15" style="52" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="50"/>
+    <col min="4" max="4" width="17.5703125" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" customFormat="1">
@@ -11294,7 +12461,7 @@
     </row>
     <row r="2" spans="2:3" customFormat="1" ht="38">
       <c r="B2" s="24" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C2" s="22"/>
     </row>
@@ -11307,12 +12474,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="52" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -11320,15 +12487,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="51" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="51" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -11336,10 +12503,10 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="51" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -11352,7 +12519,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="51" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>119</v>
@@ -11366,7 +12533,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="51" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>120</v>
@@ -11374,12 +12541,12 @@
     </row>
     <row r="21" spans="2:3">
       <c r="C21" s="51" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" s="51" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -11390,349 +12557,339 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="51" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="51"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="51"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="C34" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="C35" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="C37" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="C39" s="51"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="C31" s="51" t="s">
+    <row r="42" spans="2:9">
+      <c r="C42" s="51" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="C32" s="51" t="s">
+    <row r="43" spans="2:9">
+      <c r="C43" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="C44" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="C45" s="51"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="C46" s="53" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="51" t="s">
+      <c r="D46" s="55" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="51" t="s">
+      <c r="E46" s="55" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="C35" s="51" t="s">
+      <c r="F46" s="55" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="51" t="s">
+      <c r="G46" s="55" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="51" t="s">
+      <c r="H46" s="55" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="51" t="s">
+      <c r="I46" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="51" t="s">
+    <row r="47" spans="2:9" ht="25">
+      <c r="C47" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="54" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="51"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="51" t="s">
+      <c r="E47" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="54" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" s="51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="C47" s="51"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" s="51"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="51" t="s">
+      <c r="G47" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="25">
+      <c r="C48" s="56" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="C50" s="51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="C51" s="51" t="s">
+      <c r="D48" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="25">
+      <c r="C49" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="51"/>
+      <c r="L50" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="51"/>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="51"/>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" s="51"/>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54" s="51"/>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="51"/>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="51"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="51"/>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58" s="51"/>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="51"/>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="C60" s="51"/>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="C61" s="51"/>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="C62" s="51"/>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" s="51"/>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="C64" s="51"/>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" s="51"/>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="C66" s="51"/>
+      <c r="L66" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="C68" s="51" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="C52" s="51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="C53" s="51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="C54" s="51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="C55" s="51"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="C58" s="51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="C59" s="51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="C60" s="51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="C61" s="51"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="C62" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H62" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="I62" s="55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="25">
-      <c r="C63" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="25">
-      <c r="C64" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="G64" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="H64" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" ht="25">
-      <c r="C65" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G65" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="H65" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="I65" s="54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9">
-      <c r="C66" s="51"/>
-    </row>
-    <row r="67" spans="3:9">
-      <c r="C67" s="51"/>
-    </row>
-    <row r="68" spans="3:9">
-      <c r="C68" s="51"/>
-    </row>
-    <row r="69" spans="3:9">
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+    </row>
+    <row r="69" spans="3:12">
       <c r="C69" s="51"/>
-    </row>
-    <row r="70" spans="3:9">
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+    </row>
+    <row r="70" spans="3:12">
       <c r="C70" s="51"/>
-    </row>
-    <row r="71" spans="3:9">
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+    </row>
+    <row r="71" spans="3:12">
       <c r="C71" s="51"/>
-    </row>
-    <row r="72" spans="3:9">
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+    </row>
+    <row r="72" spans="3:12">
       <c r="C72" s="51"/>
-    </row>
-    <row r="73" spans="3:9">
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+    </row>
+    <row r="73" spans="3:12">
       <c r="C73" s="51"/>
     </row>
-    <row r="74" spans="3:9">
-      <c r="C74" s="51"/>
-    </row>
-    <row r="75" spans="3:9">
-      <c r="C75" s="51"/>
-    </row>
-    <row r="76" spans="3:9">
-      <c r="C76" s="51"/>
-    </row>
-    <row r="77" spans="3:9">
-      <c r="C77" s="51"/>
-    </row>
-    <row r="78" spans="3:9">
-      <c r="C78" s="51"/>
-    </row>
-    <row r="79" spans="3:9">
-      <c r="C79" s="51"/>
-    </row>
-    <row r="80" spans="3:9">
+    <row r="74" spans="3:12">
+      <c r="C74" s="50"/>
+    </row>
+    <row r="75" spans="3:12">
+      <c r="C75" s="50"/>
+    </row>
+    <row r="76" spans="3:12">
+      <c r="C76" s="50"/>
+    </row>
+    <row r="77" spans="3:12">
+      <c r="C77" s="50"/>
+    </row>
+    <row r="78" spans="3:12">
+      <c r="C78" s="50"/>
+    </row>
+    <row r="79" spans="3:12">
+      <c r="C79" s="50"/>
+    </row>
+    <row r="80" spans="3:12">
       <c r="C80" s="51"/>
     </row>
-    <row r="81" spans="3:9">
+    <row r="81" spans="2:11">
       <c r="C81" s="51"/>
     </row>
-    <row r="82" spans="3:9">
+    <row r="82" spans="2:11">
       <c r="C82" s="51"/>
     </row>
-    <row r="83" spans="3:9">
+    <row r="83" spans="2:11">
       <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-    </row>
-    <row r="84" spans="3:9">
-      <c r="C84" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-    </row>
-    <row r="85" spans="3:9">
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-    </row>
-    <row r="86" spans="3:9">
+    </row>
+    <row r="86" spans="2:11">
       <c r="C86" s="51"/>
       <c r="D86" s="51"/>
       <c r="E86" s="51"/>
@@ -11740,144 +12897,221 @@
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
       <c r="I86" s="51"/>
-    </row>
-    <row r="87" spans="3:9">
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-    </row>
-    <row r="88" spans="3:9">
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-    </row>
-    <row r="89" spans="3:9">
-      <c r="C89" s="51"/>
-    </row>
-    <row r="90" spans="3:9">
-      <c r="C90" s="50"/>
-    </row>
-    <row r="91" spans="3:9">
-      <c r="C91" s="50"/>
-    </row>
-    <row r="92" spans="3:9">
-      <c r="C92" s="50"/>
-    </row>
-    <row r="93" spans="3:9">
-      <c r="C93" s="50"/>
-    </row>
-    <row r="94" spans="3:9">
-      <c r="C94" s="50"/>
-    </row>
-    <row r="95" spans="3:9">
-      <c r="C95" s="50"/>
-    </row>
-    <row r="96" spans="3:9">
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="C89" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="C90" s="51"/>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="C91" s="51"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="C92" s="51"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="C93" s="51"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="C94" s="51"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="C95" s="51"/>
+    </row>
+    <row r="96" spans="2:11">
       <c r="C96" s="51"/>
     </row>
-    <row r="97" spans="2:11">
-      <c r="C97" s="51"/>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="C98" s="51"/>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="C99" s="51"/>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" s="51" t="s">
+    <row r="97" spans="3:12">
+      <c r="C97" s="50"/>
+    </row>
+    <row r="98" spans="3:12">
+      <c r="C98" s="50"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+    </row>
+    <row r="99" spans="3:12">
+      <c r="C99" s="50"/>
+    </row>
+    <row r="100" spans="3:12" ht="24" customHeight="1">
+      <c r="C100" s="50"/>
+    </row>
+    <row r="101" spans="3:12">
+      <c r="C101" s="50"/>
+    </row>
+    <row r="102" spans="3:12">
+      <c r="C102" s="50"/>
+    </row>
+    <row r="103" spans="3:12">
+      <c r="C103" s="50"/>
+    </row>
+    <row r="104" spans="3:12">
+      <c r="C104" s="50"/>
+    </row>
+    <row r="105" spans="3:12">
+      <c r="C105" s="50"/>
+    </row>
+    <row r="106" spans="3:12">
+      <c r="C106" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" ht="25">
+      <c r="C107" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="60" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="C105" s="51" t="s">
+      <c r="L107" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12">
+      <c r="C108" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="57" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
-      <c r="C106" s="51" t="s">
+    <row r="109" spans="3:12">
+      <c r="C109" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D109" s="57" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
-      <c r="C107" s="51" t="s">
+    <row r="110" spans="3:12">
+      <c r="C110" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="57" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
-      <c r="C108" s="51" t="s">
+    <row r="111" spans="3:12" ht="75">
+      <c r="C111" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="58" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
-      <c r="C109" s="51" t="s">
+    <row r="112" spans="3:12">
+      <c r="C112" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="57" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
-      <c r="C110" s="51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="C111" s="51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="C112" s="51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="C113" s="51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="C114" s="51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="C115" s="51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="C116" s="51" t="s">
+    <row r="113" spans="3:11" ht="50">
+      <c r="C113" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" s="58" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C119" s="52" t="s">
-        <v>194</v>
-      </c>
+    <row r="114" spans="3:11">
+      <c r="C114" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" ht="50">
+      <c r="C115" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+    </row>
+    <row r="117" spans="3:11">
+      <c r="C117" s="51"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+    </row>
+    <row r="118" spans="3:11">
+      <c r="C118" s="51"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+    </row>
+    <row r="120" spans="3:11">
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+    </row>
+    <row r="121" spans="3:11">
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D140AE-0B9B-BE4A-9774-BBFE3437B690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D585D267-9F1E-A84C-B8D6-EB2E21B9DB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -4895,6 +4895,27 @@
     <t>整数値 x, y を入力し、以下の条件に該当する場合、そうであることを示す文を表示しなさい。(該当するものは全て表示させること)</t>
     <rPh sb="0" eb="1">
       <t>スベt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月曜</t>
+    <rPh sb="0" eb="2">
+      <t>ゲt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休診</t>
+    <rPh sb="0" eb="2">
+      <t>キュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休診</t>
+    <rPh sb="0" eb="1">
+      <t>キュウシn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -12589,7 +12610,7 @@
     <row r="32" spans="2:3">
       <c r="C32" s="51"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:10">
       <c r="B33" s="51" t="s">
         <v>147</v>
       </c>
@@ -12597,35 +12618,35 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:10">
       <c r="C34" s="51" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:10">
       <c r="C35" s="51" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:10">
       <c r="C36" s="51" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:10">
       <c r="C37" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:10">
       <c r="C38" s="51" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:10">
       <c r="C39" s="51"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:10">
       <c r="B41" s="51" t="s">
         <v>148</v>
       </c>
@@ -12633,25 +12654,25 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:10">
       <c r="C42" s="51" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:10">
       <c r="C43" s="51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:10">
       <c r="C44" s="51" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:10">
       <c r="C45" s="51"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:10">
       <c r="C46" s="53" t="s">
         <v>128</v>
       </c>
@@ -12659,22 +12680,25 @@
         <v>129</v>
       </c>
       <c r="E46" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="G46" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="H46" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="I46" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="I46" s="55" t="s">
+      <c r="J46" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="25">
+    <row r="47" spans="2:10" ht="25">
       <c r="C47" s="56" t="s">
         <v>153</v>
       </c>
@@ -12682,22 +12706,25 @@
         <v>135</v>
       </c>
       <c r="E47" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="54" t="s">
         <v>135</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>136</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>136</v>
       </c>
       <c r="H47" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="54" t="s">
+      <c r="J47" s="54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="25">
+    <row r="48" spans="2:10" ht="25">
       <c r="C48" s="56" t="s">
         <v>152</v>
       </c>
@@ -12717,6 +12744,9 @@
         <v>136</v>
       </c>
       <c r="I48" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="54" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12728,18 +12758,21 @@
         <v>135</v>
       </c>
       <c r="E49" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="G49" s="54" t="s">
         <v>135</v>
-      </c>
-      <c r="G49" s="54" t="s">
-        <v>136</v>
       </c>
       <c r="H49" s="54" t="s">
         <v>136</v>
       </c>
       <c r="I49" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" s="54" t="s">
         <v>135</v>
       </c>
     </row>

--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D585D267-9F1E-A84C-B8D6-EB2E21B9DB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA4294-46E7-0442-9D4A-B4D642F9497A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -4720,21 +4720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>夜間</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>午後</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>午前</t>
-    <rPh sb="0" eb="2">
-      <t>〜</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＊エラーの場合</t>
     <rPh sb="0" eb="1">
       <t>ビョ</t>
@@ -4916,6 +4901,30 @@
     <t>休診</t>
     <rPh sb="0" eb="1">
       <t>キュウシn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午前
+(09:00〜12:00)</t>
+    <rPh sb="0" eb="2">
+      <t>〜</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜間
+(22:00〜24:00)</t>
+    <rPh sb="0" eb="2">
+      <t>＝</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午後
+(13:00〜18:00)</t>
+    <rPh sb="0" eb="2">
+      <t>＝</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -12495,12 +12504,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -12511,12 +12520,12 @@
         <v>143</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -12527,12 +12536,12 @@
         <v>144</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -12562,7 +12571,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="C21" s="51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -12578,7 +12587,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>121</v>
@@ -12615,7 +12624,7 @@
         <v>147</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -12640,7 +12649,7 @@
     </row>
     <row r="38" spans="2:10">
       <c r="C38" s="51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -12661,7 +12670,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="C43" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -12680,7 +12689,7 @@
         <v>129</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F46" s="55" t="s">
         <v>130</v>
@@ -12698,15 +12707,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="25">
+    <row r="47" spans="2:10" ht="50">
       <c r="C47" s="56" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>135</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F47" s="54" t="s">
         <v>135</v>
@@ -12724,9 +12733,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="25">
+    <row r="48" spans="2:10" ht="50">
       <c r="C48" s="56" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D48" s="54" t="s">
         <v>135</v>
@@ -12750,15 +12759,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="25">
+    <row r="49" spans="3:12" ht="50">
       <c r="C49" s="56" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D49" s="54" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F49" s="54" t="s">
         <v>136</v>
@@ -12779,7 +12788,7 @@
     <row r="50" spans="3:12">
       <c r="C50" s="51"/>
       <c r="L50" s="50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="3:12">
@@ -12830,7 +12839,7 @@
     <row r="66" spans="3:12">
       <c r="C66" s="51"/>
       <c r="L66" s="50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:12">
@@ -12844,7 +12853,7 @@
     </row>
     <row r="68" spans="3:12">
       <c r="C68" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="51"/>
@@ -12938,12 +12947,12 @@
         <v>149</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="C89" s="51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -12998,90 +13007,90 @@
     </row>
     <row r="106" spans="3:12">
       <c r="C106" s="51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="3:12" ht="25">
       <c r="C107" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D107" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L107" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="3:12">
       <c r="C108" s="53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="3:12">
       <c r="C109" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="3:12">
       <c r="C110" s="53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D110" s="57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="3:12" ht="75">
       <c r="C111" s="53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="3:12">
       <c r="C112" s="53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="3:11" ht="50">
       <c r="C113" s="53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D113" s="58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="3:11">
       <c r="C114" s="53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="3:11" ht="50">
       <c r="C115" s="53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D115" s="58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="3:11">
       <c r="C116" s="53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E116" s="51"/>
       <c r="F116" s="51"/>

--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA4294-46E7-0442-9D4A-B4D642F9497A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043139F0-7388-2F45-9FC0-CD7D2C0E5624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="0705" sheetId="1" r:id="rId1"/>
     <sheet name="0719" sheetId="2" r:id="rId2"/>
     <sheet name="0726" sheetId="3" r:id="rId3"/>
+    <sheet name="0802" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="293">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -4928,12 +4929,510 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>次のプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>変数 x に数値 11 を代入し、x の値を“x=11”のように表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x、y に数値 13、17 を代入し、x、y の値を“x=13,y=17”のように表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x に数値 13 と 17 の和を代入し、x の値を表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値 13 と 17 の積を表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x、y に任意の数値を代入し、x の値を y に、y の値を x に入れ替えて x と y の値を表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x、y に数値 19、23 を代入し、その積を変数 z に代入して z の値を表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数 x に任意の数値を代入し、x を 2 倍、3 倍、4 倍した結果を表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>変数 x に任意の数値を代入し、x を 1 乗、2 乗、3 乗した結果を表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>変数 x に任意の数値を代入し、x を x より小さい任意の数値で割った商と余りを表示するプログラムを作成しなさい。</t>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月の開始と月の終わりを設定し、設定した月の間の日数の合計を表示する画面を作成してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊ワードプレスの固定ページで作成すること</t>
+    <rPh sb="0" eb="2">
+      <t>コテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊入力のエラー時</t>
+    <rPh sb="0" eb="1">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学籍番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル名: student_manager</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <rPh sb="0" eb="2">
+      <t>レt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型(文字数)</t>
+    <rPh sb="0" eb="1">
+      <t>カt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varcher(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varcher(50)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varcher(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20de4567</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20de4569</t>
+  </si>
+  <si>
+    <t>20de4570</t>
+  </si>
+  <si>
+    <t>20de4571</t>
+  </si>
+  <si>
+    <t>20de4568</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中太郎</t>
+    <rPh sb="0" eb="2">
+      <t>タナk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木一郎</t>
+    <rPh sb="0" eb="2">
+      <t>スズk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木村奈々</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中田裕樹</t>
+    <rPh sb="0" eb="2">
+      <t>ナk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伊藤香奈</t>
+    <rPh sb="0" eb="4">
+      <t>イt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1998/12/30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varcher(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1998/06/08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1999/07/07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1997/11/20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1999/11/19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17で作成したテーブルに以下のデータを追加するSQL文を作成してください</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phpの問題 08/02</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木一朗</t>
+    <rPh sb="0" eb="2">
+      <t>スズk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正前</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正後</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木村菜奈</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中田裕樹</t>
+    <rPh sb="0" eb="4">
+      <t>ナカタユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中田祐希</t>
+    <rPh sb="0" eb="2">
+      <t>ナk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18で追加したデータの名前にミスがありました。以下のようにデータを修正するSQL文を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18で追加したデータを表示したい場合のSQL文を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中太郎さんが退学することになりました。田中太郎さんのデータを削除するするSQL文を作成してください。</t>
+    <rPh sb="0" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しく以下の学生が入学されました。以下のデータを追加するSQL文を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21gr1257</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21gr4589</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21gr2890</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中次郎</t>
+    <rPh sb="0" eb="2">
+      <t>タナk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本田ひかり</t>
+    <rPh sb="0" eb="2">
+      <t>HONDA</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>松本優香</t>
+    <rPh sb="0" eb="2">
+      <t>マt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2000/6/30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2000/9/14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2000/10/13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢が現在、21歳である学生のみの情報がほしいと依頼がありました。現在、21である学生のみを表示するSQL文を作成してください。</t>
+    <rPh sb="0" eb="1">
+      <t>サイノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２つの整数の平均を計算するメソッドを作成しなさい。２つの 数値 型引数を取り、結果を数値 型の戻り値として返すこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整数の 2 乗を計算するメソッドを作成しなさい。１つの 数値 型引数を取り、結果を数値型の戻り値として返すこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>“こんにちは”と表示するプログラムを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phpMyAdminで以下のテーブルを作成してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男子の学生の人数が知りたいとの依頼がありました。男子学生のみを表示するSQL文を作成してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6-1. 数値 型の変数 x に数値 7 を代入し、変数 x の値を 3 倍にして表示する。</t>
+    <rPh sb="0" eb="46">
+      <t>ヒョウyj</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6-2. 変数 x の値を変数yに代入し、半分(1/2)にして表示する。</t>
+    <rPh sb="0" eb="36">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>26</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>与えられた整数値が7ならば「ハッピー」、3ならば「ラッキー」、13ならば「アンラッキー」、それ以外は「普通」と出力するif文、switch文の二通りを作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※  xyzはぞれぞれ異なる数値を入力するものとする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 平均の計算は整数で行い、小数点以下は切り捨ててよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢を入力し、12歳以上70歳未満ならば「1000円」、それ以外は「ただ」と出力してくだい。</t>
+    <rPh sb="0" eb="2">
+      <t>。</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値 型の変数 x、y、z にそれぞれ数値を入力し、最も大きい数値を戻り値として返すメソッドを作成しなさい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cher(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5116,6 +5615,65 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCC0000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCC0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5336,7 +5894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5519,6 +6077,54 @@
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8124,15 +8730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>481188</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>328788</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8147,8 +8753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1892300" y="18821400"/>
-          <a:ext cx="6589888" cy="3911600"/>
+          <a:off x="1752600" y="16738600"/>
+          <a:ext cx="7288388" cy="3911600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8457,16 +9063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>83255</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>896055</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>344311</xdr:colOff>
+      <xdr:colOff>191911</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8481,8 +9087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1988255" y="20040600"/>
-          <a:ext cx="1594556" cy="330200"/>
+          <a:off x="1861255" y="17957800"/>
+          <a:ext cx="1607256" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8540,16 +9146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>108655</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>921455</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>578555</xdr:colOff>
+      <xdr:colOff>426155</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8564,7 +9170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013655" y="21399500"/>
+          <a:off x="1886655" y="19316700"/>
           <a:ext cx="469900" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8615,16 +9221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>337256</xdr:colOff>
+      <xdr:colOff>184856</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8639,8 +9245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981200" y="20802600"/>
-          <a:ext cx="1594556" cy="330200"/>
+          <a:off x="1854200" y="18719800"/>
+          <a:ext cx="1607256" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8699,15 +9305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>802923</xdr:colOff>
+      <xdr:colOff>650523</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>725311</xdr:colOff>
+      <xdr:colOff>572911</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8722,8 +9328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10708923" y="18859500"/>
-          <a:ext cx="6589888" cy="3911600"/>
+          <a:off x="11293123" y="16776700"/>
+          <a:ext cx="6678788" cy="3911600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8873,15 +9479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>280810</xdr:rowOff>
+      <xdr:rowOff>255410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>436033</xdr:colOff>
+      <xdr:colOff>283633</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>297743</xdr:rowOff>
+      <xdr:rowOff>272343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8896,8 +9502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8775700" y="20270610"/>
-          <a:ext cx="1566333" cy="931333"/>
+          <a:off x="9334500" y="18187810"/>
+          <a:ext cx="1591733" cy="931333"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -9198,16 +9804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595488</xdr:colOff>
+      <xdr:colOff>443088</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9222,8 +9828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="24333200"/>
-          <a:ext cx="6589888" cy="3911600"/>
+          <a:off x="1879600" y="22250400"/>
+          <a:ext cx="7275688" cy="3911600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10489,6 +11095,976 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>307494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>926757</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>68887</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D1579D-76A1-5C48-A1F9-A1D738251F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1922162" y="33052899"/>
+          <a:ext cx="17196487" cy="9337880"/>
+          <a:chOff x="1922162" y="33052899"/>
+          <a:chExt cx="17196487" cy="9337880"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D36DA05-E549-3948-84B1-A0C92835626F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1922162" y="33054324"/>
+            <a:ext cx="7099414" cy="3808627"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の日数の合計チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>何月から？</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>何月まで？</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BFF7ED-EFF8-8043-9C55-BB6B4971BF94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1992717" y="34095381"/>
+            <a:ext cx="1753135" cy="321619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30797B94-2C67-5F4C-8440-AC9E633EBD9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2056217" y="35563776"/>
+            <a:ext cx="469900" cy="296219"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結果</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3D0704-A4B6-5C44-B7DA-B9BC2B10D4C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2023762" y="34984038"/>
+            <a:ext cx="1753135" cy="321619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10195C88-A277-DF45-A19B-B0C08D04E612}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12345756" y="33052899"/>
+            <a:ext cx="6738856" cy="3809667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の日数の合計チェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>月初日から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>月末までの合計日数は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>153</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>日です。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="右矢印 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B48A18-1FE7-3D41-8940-AE57954859F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9802319" y="34488452"/>
+            <a:ext cx="1609935" cy="905590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A351919-D207-2246-9BC4-75081256A9BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12463890" y="38581112"/>
+            <a:ext cx="6654759" cy="3809667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の日数の合計チェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>入力エラーです。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>月が正しいか確認してください。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12474,7 +14050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992BB4A-04F6-964A-9E3D-5EA7D0576D9A}">
   <dimension ref="B1:L121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
@@ -13160,4 +14736,839 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C306AB-362D-6441-BFF8-1D9F760044DB}">
+  <dimension ref="B2:K137"/>
+  <sheetViews>
+    <sheetView zoomScale="37" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="52"/>
+    <col min="2" max="2" width="10.7109375" style="68"/>
+    <col min="3" max="3" width="12.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="52" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" s="50" customFormat="1" ht="38">
+      <c r="B2" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="66"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="67"/>
+      <c r="C7" s="64"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="69">
+        <v>2</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="69"/>
+      <c r="C9" s="66"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="66"/>
+    </row>
+    <row r="11" spans="2:3" ht="26" customHeight="1">
+      <c r="B11" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="26" customHeight="1">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="66"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="66"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="66">
+        <v>5</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="66"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="67"/>
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="66">
+        <v>6</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="66"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="66">
+        <v>7</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="64"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="66"/>
+    </row>
+    <row r="30" spans="2:4" ht="26" customHeight="1">
+      <c r="B30" s="66">
+        <v>8</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="26" customHeight="1">
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="66"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="66">
+        <v>9</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="66"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="66">
+        <v>10</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="66"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="66">
+        <v>11</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="66"/>
+    </row>
+    <row r="42" spans="2:3" ht="25">
+      <c r="B42" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="62"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="2:3" ht="25">
+      <c r="B45" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="76"/>
+      <c r="C46" s="49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="62"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+    </row>
+    <row r="49" spans="2:9" ht="25">
+      <c r="B49" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="25">
+      <c r="B50" s="62"/>
+      <c r="C50" s="70" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="25">
+      <c r="B51" s="62"/>
+      <c r="C51" s="70"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="62"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="66"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="62"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="62"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="66"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="66"/>
+      <c r="C60" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="66"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="66"/>
+      <c r="C62" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="66"/>
+      <c r="C63" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="66"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="71"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="61"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="72"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="66"/>
+      <c r="G68" s="72"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="66"/>
+      <c r="C69" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="66"/>
+      <c r="C70" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70" s="73" t="str">
+        <f t="shared" ref="F70:F71" si="0" xml:space="preserve"> C70&amp;"@example.com"</f>
+        <v>20de4567@example.com</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="66"/>
+      <c r="C71" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>20de4568@example.com</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="66"/>
+      <c r="C72" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" s="73" t="str">
+        <f xml:space="preserve"> C72&amp;"@example.com"</f>
+        <v>20de4569@example.com</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="66"/>
+      <c r="C73" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" s="73" t="str">
+        <f t="shared" ref="F73:F74" si="1" xml:space="preserve"> C73&amp;"@example.com"</f>
+        <v>20de4570@example.com</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="C74" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>20de4571@example.com</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="C81" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="C82" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="C83" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="C84" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="C91" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F91" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G91" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H91" s="55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="C92" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" s="73" t="str">
+        <f t="shared" ref="F92:F93" si="2" xml:space="preserve"> C92&amp;"@example.com"</f>
+        <v>21gr1257@example.com</v>
+      </c>
+      <c r="G92" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="C93" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="F93" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v>21gr4589@example.com</v>
+      </c>
+      <c r="G93" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="H93" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="C94" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="73" t="str">
+        <f xml:space="preserve"> C94&amp;"@example.com"</f>
+        <v>21gr2890@example.com</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="H94" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" s="52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11">
+      <c r="C121" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="46"/>
+    </row>
+    <row r="122" spans="3:11">
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+    </row>
+    <row r="123" spans="3:11">
+      <c r="C123" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="K123" s="52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11">
+      <c r="C124" s="39">
+        <v>1</v>
+      </c>
+      <c r="D124" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11">
+      <c r="C125" s="39">
+        <v>2</v>
+      </c>
+      <c r="D125" s="39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11">
+      <c r="C126" s="39">
+        <v>3</v>
+      </c>
+      <c r="D126" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11">
+      <c r="C127" s="39">
+        <v>4</v>
+      </c>
+      <c r="D127" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11">
+      <c r="C128" s="39">
+        <v>5</v>
+      </c>
+      <c r="D128" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5">
+      <c r="C129" s="39">
+        <v>6</v>
+      </c>
+      <c r="D129" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5">
+      <c r="C130" s="39">
+        <v>7</v>
+      </c>
+      <c r="D130" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5">
+      <c r="C131" s="39">
+        <v>8</v>
+      </c>
+      <c r="D131" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5">
+      <c r="C132" s="39">
+        <v>9</v>
+      </c>
+      <c r="D132" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5">
+      <c r="C133" s="39">
+        <v>10</v>
+      </c>
+      <c r="D133" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5">
+      <c r="C134" s="39">
+        <v>11</v>
+      </c>
+      <c r="D134" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5">
+      <c r="C135" s="39">
+        <v>12</v>
+      </c>
+      <c r="D135" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5">
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68"/>
+    </row>
+    <row r="137" spans="3:5">
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043139F0-7388-2F45-9FC0-CD7D2C0E5624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418EC81-BC15-A544-8C6E-FC1E4B53FFB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="0705" sheetId="1" r:id="rId1"/>
     <sheet name="0719" sheetId="2" r:id="rId2"/>
     <sheet name="0726" sheetId="3" r:id="rId3"/>
     <sheet name="0802" sheetId="4" r:id="rId4"/>
+    <sheet name="0816" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="340">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -5425,6 +5426,257 @@
   </si>
   <si>
     <t>cher(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phpの問題 08/16</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１から10を表示するプログラムを作成しなさい。(for文使用)</t>
+    <rPh sb="0" eb="1">
+      <t>ブn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>九九の6の段を表示するプログラムを作成しなさい。(for文使用)</t>
+    <rPh sb="0" eb="2">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※  条件は以下の内容とする</t>
+    <rPh sb="0" eb="1">
+      <t>テn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のように表示するコードを作成しなさい。(for文使用)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさん:国語83点、数学75点</t>
+    <rPh sb="0" eb="1">
+      <t>テn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bさん:国語68点、数学85点</t>
+    <rPh sb="0" eb="1">
+      <t>テn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AさんとBさんの合否を表示するプログラムを作成しなさい。(戻り値ありのメソッドを使用すること)</t>
+    <rPh sb="0" eb="1">
+      <t>テn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合否の条件として2科目の平均が76点以上の場合は「合格」、それ以外の場合は「不合格」と表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ノバア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面に表示したい文</t>
+    <rPh sb="1" eb="3">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊ワードプレスの固定ページで作成すること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のようなお釣りをチェックする画面を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13までのSQLのデータを使って以下のような画面を作成してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカlt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル名: accunt_manager</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>def456</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ghi789</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jkl134</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mlo678</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tanaka20@example.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>suzuki20@example.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kimura20@example.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nakata20@example.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itou20@example.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tanaka20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>suzuki20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kumura20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nakata20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itou20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9で作成したテーブルに以下のデータを追加するSQL文を作成してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加ボタンを押した時には入力した情報が追加されるようにすること。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木裕貴</t>
+    <rPh sb="0" eb="2">
+      <t>スズk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木村千秋</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中田省吾</t>
+    <rPh sb="0" eb="2">
+      <t>ナk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のようにデータを修正するSQL文を作成してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中田裕樹のデータを削除するSQL文を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ナk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のデータを追加してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※  xyzは異なる数字であることとする</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値型の変数 x、y、z にそれぞれ数値を入力し、1番小さい数値を表示するメソッドを作成しなさい。(戻り値なしのメソッドを使用すること)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値型の変数 x、y、z にそれぞれ数値を入力し、2番目に大きい数値を表示するメソッドを作成しなさい。(戻り値なしのメソッドを使用すること)</t>
+    <rPh sb="0" eb="3">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4の 1乗から 10乗までを表示するプログラムを作成しなさい。(for文使用)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Xさんは"合格(不合格)"です。」</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカk</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5894,7 +6146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6125,6 +6377,18 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11123,8 +11387,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1922162" y="33052899"/>
-          <a:ext cx="17196487" cy="9337880"/>
+          <a:off x="1905000" y="32654394"/>
+          <a:ext cx="17093857" cy="9210193"/>
           <a:chOff x="1922162" y="33052899"/>
           <a:chExt cx="17196487" cy="9337880"/>
         </a:xfrm>
@@ -12065,6 +12329,3522 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>127004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36288</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>101603</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BFA770-D08A-9A4D-8F29-88FA7E74BE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1676401" y="40144704"/>
+          <a:ext cx="15885887" cy="8813799"/>
+          <a:chOff x="1922162" y="33052899"/>
+          <a:chExt cx="17162450" cy="7535451"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA92E3A-AF6A-794F-968E-4A88E5CB6904}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1922162" y="33054324"/>
+            <a:ext cx="7099414" cy="3808627"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>お釣りチェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>何円のものを買いますか？</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　円</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>何円支払いますか</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　円</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80287FC-7279-7A49-80BA-3C45908F91E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2022728" y="33737067"/>
+            <a:ext cx="1753135" cy="321619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>300</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B475682-3F3F-7947-8FA8-557E168A2A68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2041211" y="35096882"/>
+            <a:ext cx="616227" cy="257913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結果</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C41A86D-2E93-2349-8B49-70F2D00FE61A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2023762" y="34549718"/>
+            <a:ext cx="1753135" cy="321619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD99FD-4334-0246-915D-6FD7C1F3AFBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12345756" y="33052899"/>
+            <a:ext cx="6738856" cy="3809667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>お釣りチェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>300</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円の商品を</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円で支払った場合のお釣り</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>10000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>500</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>    1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>    2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>         </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り   　     </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>700</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="右矢印 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557D15D7-6E10-CA4D-A8A2-7418B16B9A78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9802319" y="34488452"/>
+            <a:ext cx="1609935" cy="905590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE07B9D-61F9-3646-B9BE-AFA346116207}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12390577" y="37755904"/>
+            <a:ext cx="6654759" cy="2832446"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>お釣りチェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>エラーです。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>791634</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>116436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>832520</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>270930</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32458C2E-F80A-7F45-B7A5-C97E7E6A04F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1744134" y="29161336"/>
+          <a:ext cx="15661886" cy="8688894"/>
+          <a:chOff x="1943101" y="25533369"/>
+          <a:chExt cx="15636486" cy="8688894"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="グループ化 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EABDDC-E833-D442-B3FE-D6597BC948C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1943101" y="25533369"/>
+            <a:ext cx="8783327" cy="4823859"/>
+            <a:chOff x="1828800" y="24525836"/>
+            <a:chExt cx="8783327" cy="4823859"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="18" name="グループ化 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B01076D-3F00-CD48-A0BA-48F34DBE5A2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1828800" y="24525836"/>
+              <a:ext cx="8783327" cy="4823859"/>
+              <a:chOff x="1922162" y="33088161"/>
+              <a:chExt cx="9490092" cy="3213341"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="正方形/長方形 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E476D2D-AA72-E348-9157-99F18297108E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1922162" y="33088161"/>
+                <a:ext cx="7099414" cy="3213341"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>ユーザ一覧</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>名前</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>　　　　　　　　　　　　</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>　　　　　　　　　　　　</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>ユーザー名</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>メールアドレス</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>パスワード</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>ワード</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="正方形/長方形 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D8E7C4-E6D9-FC43-B203-8AF7211B87EC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1972975" y="33830128"/>
+                <a:ext cx="1753135" cy="246422"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>野口拓哉</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="正方形/長方形 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8CEC0A-3365-4043-A76C-CE185BC6F973}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4141604" y="35367597"/>
+                <a:ext cx="616227" cy="189435"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>追加</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="正方形/長方形 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8C5238-C724-1043-B05F-73291D4DD6F4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1983880" y="34296505"/>
+                <a:ext cx="1753135" cy="228419"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>noguti20</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="24" name="右矢印 23">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43ECACE7-635B-D840-8FD0-015DD574E5EF}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9802319" y="34488452"/>
+                <a:ext cx="1609935" cy="905590"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="正方形/長方形 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C53E7C-400B-A146-9330-CEF27CD15F28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1892300" y="27863800"/>
+              <a:ext cx="1622572" cy="342902"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>xyz789</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6BEB0C-753B-7349-B523-0AF4A74778FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1892299" y="27101799"/>
+              <a:ext cx="2379133" cy="372534"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>noguti20@example.com</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="グループ化 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18645676-A723-0C49-8FB2-6C3D84C88E32}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11038529" y="25565766"/>
+            <a:ext cx="6541058" cy="8656497"/>
+            <a:chOff x="11563462" y="24837636"/>
+            <a:chExt cx="6541058" cy="4423763"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="正方形/長方形 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343D2D94-C4B5-B040-B168-BA76BEE45EA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11563462" y="24837636"/>
+              <a:ext cx="6541058" cy="4423763"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>ユーザ一覧</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>名前</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>　　　　　　　　　　　　</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>　　　　　　　　　　　　</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>ユーザー名</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ワード</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>田中太郎</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:tanaka20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:tanaka20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: abc123</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>鈴木裕貴</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:suzuki20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:suzuki20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: def123</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>木村千秋</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:kimura20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>kimura20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: ghi123</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>野口拓哉</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:noguti20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> noguti</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: xyz789</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="正方形/長方形 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894AF3F4-BD94-7747-821F-D0ACC876B5F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11633663" y="25390596"/>
+              <a:ext cx="1614105" cy="189624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="正方形/長方形 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28361D19-3A96-2843-B42F-F849EBE3DAC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13564583" y="26521544"/>
+              <a:ext cx="566101" cy="174117"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>追加</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="正方形/長方形 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E97040-6D12-8E4E-BC52-8E4921462EAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11643756" y="25767995"/>
+              <a:ext cx="1614105" cy="203906"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="正方形/長方形 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1629F18C-D4B2-A941-9B33-9CFB870A6FC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11650135" y="26505974"/>
+              <a:ext cx="1614105" cy="189688"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891CB36A-1545-8E4A-A90C-716E13853E2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11650134" y="26152462"/>
+              <a:ext cx="1614105" cy="185578"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -14742,7 +18522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C306AB-362D-6441-BFF8-1D9F760044DB}">
   <dimension ref="B2:K137"/>
   <sheetViews>
-    <sheetView zoomScale="37" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
@@ -15571,4 +19351,853 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EACDB-A74E-A249-B875-2998524B77F3}">
+  <dimension ref="A1:G162"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="52"/>
+    <col min="2" max="2" width="10.7109375" style="68"/>
+    <col min="3" max="3" width="13.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="24" style="52" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="52" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="79"/>
+    </row>
+    <row r="2" spans="1:3" s="50" customFormat="1" ht="38">
+      <c r="B2" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="5" spans="1:3" ht="25">
+      <c r="B5" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25">
+      <c r="B6" s="66"/>
+      <c r="C6" s="70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+    </row>
+    <row r="8" spans="1:3" ht="25">
+      <c r="B8" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25">
+      <c r="B9" s="66"/>
+      <c r="C9" s="70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+    </row>
+    <row r="11" spans="1:3" ht="26" customHeight="1">
+      <c r="B11" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="66"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="66"/>
+      <c r="C15" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="66"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="66"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="66"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="66"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="67"/>
+      <c r="C23" s="66"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="69">
+        <v>5</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="69"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="66"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="64"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="66"/>
+      <c r="C31" s="52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="66"/>
+      <c r="C37" s="52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="26" customHeight="1">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="26" customHeight="1">
+      <c r="B39" s="66"/>
+      <c r="C39" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="66"/>
+      <c r="C40" s="52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="66"/>
+      <c r="C44" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="64"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="66"/>
+      <c r="C45" s="66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="66"/>
+      <c r="C46" s="66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="66"/>
+      <c r="C47" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="66"/>
+      <c r="C49" s="66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="66"/>
+      <c r="C50" s="52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="26" customHeight="1">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="26" customHeight="1">
+      <c r="B53" s="66"/>
+      <c r="C53" s="52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="66"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="66"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="66"/>
+      <c r="C58" s="52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="66"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="66"/>
+      <c r="C60" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="66"/>
+      <c r="C61" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="66"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="62"/>
+      <c r="C63" s="61"/>
+    </row>
+    <row r="64" spans="2:7" ht="25">
+      <c r="B64" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="25">
+      <c r="B65" s="66"/>
+      <c r="C65" s="70"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="66"/>
+      <c r="C66" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="66"/>
+      <c r="C67" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="66"/>
+      <c r="C68" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="66"/>
+      <c r="C69" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="66"/>
+      <c r="C70" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="52"/>
+    </row>
+    <row r="72" spans="2:6" ht="25">
+      <c r="B72" s="66"/>
+      <c r="C72" s="70"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="66"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="66"/>
+      <c r="C75" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="62"/>
+      <c r="C76" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="62"/>
+      <c r="C77" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="66"/>
+      <c r="C78" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="66"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="79"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="66"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="66"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="62"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="66"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="66"/>
+      <c r="C86" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="66"/>
+      <c r="C87" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="76"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="62"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="61"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="66"/>
+      <c r="C92" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="66"/>
+      <c r="C93" s="52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="66"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="66"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="66"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="66"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="66"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="66"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="66"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="66"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="66"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="66"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="66"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="66"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="66"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="66"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="66"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="66"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="66"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="66"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="66"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="66"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="66"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="66"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="66"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="66"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="66"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="66"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="66"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="66"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="66"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="66"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="66"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="62"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="62"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="66"/>
+      <c r="C128" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="66"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="66"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="66"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="66"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="66"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="66"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="66"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="66"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="66"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="66"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="66"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="66"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="66"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="66"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="66"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="66"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="66"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="66"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="66"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="66"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="66"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="66"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="66"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="66"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="66"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="66"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="66"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="66"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="66"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="66"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="66"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="71"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="66"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="66"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418EC81-BC15-A544-8C6E-FC1E4B53FFB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E157187-AC0D-FA48-A3BB-4366BB6F6DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="0726" sheetId="3" r:id="rId3"/>
     <sheet name="0802" sheetId="4" r:id="rId4"/>
     <sheet name="0816" sheetId="5" r:id="rId5"/>
+    <sheet name="0823" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="340">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -12334,15 +12335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
+      <xdr:colOff>698501</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>127004</xdr:rowOff>
+      <xdr:rowOff>115970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>36288</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>101603</xdr:rowOff>
+      <xdr:rowOff>101602</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12357,10 +12358,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1676401" y="40144704"/>
-          <a:ext cx="15885887" cy="8813799"/>
-          <a:chOff x="1922162" y="33052899"/>
-          <a:chExt cx="17162450" cy="7535451"/>
+          <a:off x="1651001" y="40133670"/>
+          <a:ext cx="15911287" cy="8824832"/>
+          <a:chOff x="1894720" y="33043466"/>
+          <a:chExt cx="17189892" cy="7544884"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -12376,7 +12377,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1922162" y="33054324"/>
+            <a:off x="1894720" y="33043466"/>
             <a:ext cx="7099414" cy="3808627"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -13274,6 +13275,56 @@
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
               <a:t>    2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>枚</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>円のお釣り　    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> 0</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
@@ -15845,6 +15896,2247 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>155223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B3EB25-428A-2E43-98B7-E908F727A411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1866900" y="25910823"/>
+          <a:ext cx="15306322" cy="9429043"/>
+          <a:chOff x="1873956" y="25371779"/>
+          <a:chExt cx="15426266" cy="9429043"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B944B54A-ADAA-BF4B-8D4B-85018E249A75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1873956" y="25381656"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月日の計算チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>ここに月を入力して下さい</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF078047-DB0F-AC42-A245-96FCAA10E0C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969911" y="26600856"/>
+            <a:ext cx="1594556" cy="330200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>１</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A98E261-4680-094C-B883-EB2DD26E8757}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969911" y="27070756"/>
+            <a:ext cx="469900" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結果</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6075F188-9C84-004F-91C0-419F5C4D180E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10710334" y="25371779"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月日の計算チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月までの月は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>365</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日です。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="右矢印 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B04AEC9-CFBF-494E-BF48-AEAF2C9864DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8777111" y="26782889"/>
+            <a:ext cx="1566333" cy="931333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FC25AF-9AD2-EA44-B7BC-89F48D2629A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10625667" y="30889222"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月日の計算チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>エラーです。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>の整数を入力してください。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="右矢印 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740F7C09-EE2D-614E-B01D-E84162EAD6FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2365798">
+            <a:off x="8379147" y="29883471"/>
+            <a:ext cx="2087388" cy="931333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>931333</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>143964</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6C287F-47C6-A345-897A-C078D1AA10CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1883833" y="13682133"/>
+          <a:ext cx="15405131" cy="8590845"/>
+          <a:chOff x="1890889" y="12954000"/>
+          <a:chExt cx="15525075" cy="8748889"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2A32DC-B594-6149-BE5D-2AAE1E72D3F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1890889" y="12963877"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の曜日チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>ここに</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の日にちを入力して下さい</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>                                                        </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F2E41B-27FD-A541-9FD8-71DEEFFC7019}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10755489" y="12954000"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の曜日チェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>30</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日の曜日は木曜日です。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="右矢印 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69332077-9DFE-424B-AC98-DB14DEB22744}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8822266" y="14365109"/>
+            <a:ext cx="1566333" cy="931334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E815AF-518B-EB47-BBE6-66DD73582086}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2032000" y="14205654"/>
+            <a:ext cx="1594556" cy="330201"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>30</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B62783-665C-1643-ACF5-98FBF8B3CD2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2032000" y="14703777"/>
+            <a:ext cx="469900" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結果</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B2A865-9092-6447-8768-63F456D90513}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10826076" y="18066084"/>
+            <a:ext cx="6589888" cy="3636805"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の曜日チェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>エラーです。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>31</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>の整数を入力してください。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="右矢印 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E42D298-6F31-9441-821B-44AC42D3E085}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2365798">
+            <a:off x="8240892" y="17596554"/>
+            <a:ext cx="2087388" cy="931333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -17343,7 +19635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BF504-F0D1-5B46-AC03-CFC3B1E7E9EE}">
   <dimension ref="B2:K118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -20200,4 +22494,493 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65791EF3-E76D-6D48-AA39-045CA74E0FC4}">
+  <dimension ref="B2:K118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="38">
+      <c r="B2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="5" spans="2:3" ht="24">
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24">
+      <c r="B6" s="41"/>
+      <c r="C6" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="24">
+      <c r="B7" s="41"/>
+      <c r="C7" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24">
+      <c r="B8" s="41"/>
+      <c r="C8" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24">
+      <c r="B9" s="41"/>
+      <c r="C9" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24">
+      <c r="B10" s="41"/>
+      <c r="C10" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="24">
+      <c r="B11" s="41"/>
+      <c r="C11" s="49"/>
+    </row>
+    <row r="12" spans="2:3" ht="24">
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="2:3" ht="24">
+      <c r="B13" s="41">
+        <v>2</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24">
+      <c r="B14" s="41"/>
+      <c r="C14" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="24">
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24">
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24">
+      <c r="B17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" ht="24">
+      <c r="B18" s="41"/>
+      <c r="C18" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24">
+      <c r="B19" s="41"/>
+      <c r="C19" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24">
+      <c r="B20" s="41"/>
+      <c r="C20" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24">
+      <c r="B21" s="41"/>
+      <c r="C21" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24">
+      <c r="B22" s="41"/>
+      <c r="C22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" ht="24">
+      <c r="B23" s="41"/>
+      <c r="C23" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24">
+      <c r="B24" s="41"/>
+      <c r="C24" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24">
+      <c r="B25" s="41"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="2:8" ht="24">
+      <c r="B26" s="41"/>
+      <c r="C26" s="49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24">
+      <c r="B27" s="41"/>
+      <c r="C27" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24">
+      <c r="B28" s="41"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="2:8" ht="24">
+      <c r="B29" s="41"/>
+      <c r="C29" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24">
+      <c r="B30" s="41"/>
+      <c r="C30" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="24">
+      <c r="B31" s="41"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="2:8" ht="24">
+      <c r="B32" s="41"/>
+      <c r="C32" s="49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="24">
+      <c r="B33" s="41"/>
+      <c r="C33" s="49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="24">
+      <c r="B34" s="41"/>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="2:10" ht="24">
+      <c r="B35" s="41"/>
+      <c r="C35" s="49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="24">
+      <c r="B36" s="41"/>
+    </row>
+    <row r="37" spans="2:10" ht="34" customHeight="1">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="2:10" ht="24">
+      <c r="B38" s="41">
+        <v>3</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="24">
+      <c r="B39" s="41"/>
+      <c r="C39" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="27">
+      <c r="B40" s="41"/>
+      <c r="C40" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="27">
+      <c r="B41" s="41"/>
+      <c r="C41" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="24">
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" spans="2:10" ht="24">
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="2:10" ht="24">
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" spans="2:10" ht="24">
+      <c r="B45" s="41"/>
+    </row>
+    <row r="46" spans="2:10" ht="24">
+      <c r="B46" s="41"/>
+    </row>
+    <row r="47" spans="2:10" ht="24">
+      <c r="B47" s="41"/>
+    </row>
+    <row r="48" spans="2:10" ht="24">
+      <c r="B48" s="41"/>
+      <c r="J48" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="24">
+      <c r="B49" s="41"/>
+    </row>
+    <row r="50" spans="2:11" ht="24">
+      <c r="B50" s="41"/>
+    </row>
+    <row r="51" spans="2:11" ht="24">
+      <c r="B51" s="41"/>
+    </row>
+    <row r="52" spans="2:11" ht="24">
+      <c r="B52" s="41"/>
+    </row>
+    <row r="53" spans="2:11" ht="24">
+      <c r="B53" s="41"/>
+    </row>
+    <row r="54" spans="2:11" ht="24">
+      <c r="B54" s="41"/>
+    </row>
+    <row r="55" spans="2:11" ht="24">
+      <c r="B55" s="41"/>
+    </row>
+    <row r="56" spans="2:11" ht="24">
+      <c r="B56" s="41"/>
+    </row>
+    <row r="57" spans="2:11" ht="24">
+      <c r="B57" s="41"/>
+    </row>
+    <row r="58" spans="2:11" ht="24">
+      <c r="B58" s="41"/>
+    </row>
+    <row r="59" spans="2:11" ht="24">
+      <c r="B59" s="41"/>
+      <c r="K59" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="24">
+      <c r="B60" s="41"/>
+    </row>
+    <row r="61" spans="2:11" ht="24">
+      <c r="B61" s="41"/>
+    </row>
+    <row r="62" spans="2:11" ht="24">
+      <c r="B62" s="41"/>
+    </row>
+    <row r="63" spans="2:11" ht="24">
+      <c r="B63" s="41"/>
+    </row>
+    <row r="64" spans="2:11" ht="24">
+      <c r="B64" s="41"/>
+    </row>
+    <row r="65" spans="2:3" ht="24">
+      <c r="B65" s="41"/>
+    </row>
+    <row r="66" spans="2:3" ht="24">
+      <c r="B66" s="41"/>
+    </row>
+    <row r="67" spans="2:3" ht="24">
+      <c r="B67" s="41"/>
+    </row>
+    <row r="68" spans="2:3" ht="24">
+      <c r="B68" s="41"/>
+    </row>
+    <row r="69" spans="2:3" ht="24">
+      <c r="B69" s="41"/>
+    </row>
+    <row r="70" spans="2:3" ht="24">
+      <c r="B70" s="41"/>
+    </row>
+    <row r="71" spans="2:3" ht="24">
+      <c r="B71" s="41"/>
+    </row>
+    <row r="72" spans="2:3" ht="24">
+      <c r="B72" s="41"/>
+    </row>
+    <row r="73" spans="2:3" ht="24">
+      <c r="B73" s="41"/>
+    </row>
+    <row r="74" spans="2:3" ht="24">
+      <c r="B74" s="41"/>
+    </row>
+    <row r="75" spans="2:3" ht="24">
+      <c r="B75" s="41"/>
+    </row>
+    <row r="76" spans="2:3" ht="24">
+      <c r="B76" s="41"/>
+    </row>
+    <row r="77" spans="2:3" ht="24">
+      <c r="B77" s="41"/>
+    </row>
+    <row r="78" spans="2:3" ht="24">
+      <c r="B78" s="41">
+        <v>4</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="24">
+      <c r="B79" s="41"/>
+      <c r="C79" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="27">
+      <c r="B80" s="40"/>
+      <c r="C80" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" ht="27">
+      <c r="C81" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="J90" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11">
+      <c r="K102" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" s="45" customFormat="1">
+      <c r="C104" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="46"/>
+    </row>
+    <row r="105" spans="3:11" s="45" customFormat="1">
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="C106" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="C107" s="39">
+        <v>1</v>
+      </c>
+      <c r="D107" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="C108" s="39">
+        <v>2</v>
+      </c>
+      <c r="D108" s="39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="C109" s="39">
+        <v>3</v>
+      </c>
+      <c r="D109" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110" s="39">
+        <v>4</v>
+      </c>
+      <c r="D110" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11">
+      <c r="C111" s="39">
+        <v>5</v>
+      </c>
+      <c r="D111" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="C112" s="39">
+        <v>6</v>
+      </c>
+      <c r="D112" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="39">
+        <v>7</v>
+      </c>
+      <c r="D113" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="39">
+        <v>8</v>
+      </c>
+      <c r="D114" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="39">
+        <v>9</v>
+      </c>
+      <c r="D115" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="39">
+        <v>10</v>
+      </c>
+      <c r="D116" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="39">
+        <v>11</v>
+      </c>
+      <c r="D117" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="39">
+        <v>12</v>
+      </c>
+      <c r="D118" s="39">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E157187-AC0D-FA48-A3BB-4366BB6F6DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5AC1A4-2325-9347-A456-CB7EEC4C5A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="0705" sheetId="1" r:id="rId1"/>
-    <sheet name="0719" sheetId="2" r:id="rId2"/>
-    <sheet name="0726" sheetId="3" r:id="rId3"/>
-    <sheet name="0802" sheetId="4" r:id="rId4"/>
-    <sheet name="0816" sheetId="5" r:id="rId5"/>
-    <sheet name="0823" sheetId="6" r:id="rId6"/>
+    <sheet name="0712" sheetId="12" r:id="rId2"/>
+    <sheet name="0719" sheetId="2" r:id="rId3"/>
+    <sheet name="0726" sheetId="3" r:id="rId4"/>
+    <sheet name="0802" sheetId="4" r:id="rId5"/>
+    <sheet name="0816" sheetId="5" r:id="rId6"/>
+    <sheet name="0823" sheetId="6" r:id="rId7"/>
+    <sheet name="0826" sheetId="11" r:id="rId8"/>
+    <sheet name="0906" sheetId="7" r:id="rId9"/>
+    <sheet name="0915" sheetId="8" r:id="rId10"/>
+    <sheet name="0920" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="379">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -5677,6 +5682,238 @@
     <t>「Xさんは"合格(不合格)"です。」</t>
     <rPh sb="0" eb="2">
       <t>ゴウカk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 8/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/2に作成した、日付を入力すると、その日の曜日が表示される画面をfor文を使って作成してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカlt</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 7/12</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Webサイトのワードプレス化を行ってください。</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の文字を出力するコードを作成しなさい。(for文を使用)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こんにちは。</t>
+    <rPh sb="0" eb="1">
+      <t>イkッk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2回目</t>
+  </si>
+  <si>
+    <t>3回目</t>
+  </si>
+  <si>
+    <t>4回目</t>
+  </si>
+  <si>
+    <t>5回目</t>
+  </si>
+  <si>
+    <t>6回目</t>
+  </si>
+  <si>
+    <t>7回目</t>
+  </si>
+  <si>
+    <t>8回目</t>
+  </si>
+  <si>
+    <t>9回目</t>
+  </si>
+  <si>
+    <t>10回目</t>
+  </si>
+  <si>
+    <t>＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊＊＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のようなピラミッドを表示するコードを作成してください。(for文を使用)</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊＊＊＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊＊＊＊＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のような九九表を作成してください。</t>
+    <rPh sb="99" eb="101">
+      <t>９９hy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1| 2| 3|	4|	5|	6|	7|	8|	9|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2| 4|	6|	8|	10|	12|	14|	16|	18|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3| 6|	9|	12|	15|	18|	21|	24|	27|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4| 8|	12|	16|	20|	24|	28|	32|	36|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5| 10|	15|	20|	25|	30|	35|	40|	45|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6| 12|	18|	24|	30|	36|	42|	48|	54|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7| 14|	21|	28|	35|	42|	49|	56|	63|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8| 16|	24|	32|	40|	48|	56|	64|	72|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9| 18|	27|	36|	45|	54|	63|	72|	81|</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>九九の4の段と7の段を表示するメソッドを作成しなさい。</t>
+    <rPh sb="0" eb="2">
+      <t>。</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何の段(1〜9 )であるかを引数とします。</t>
+    <rPh sb="0" eb="1">
+      <t>〜</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1から10を足した合計値を表示するコードを作成してください。(for文を使用)</t>
+    <rPh sb="0" eb="1">
+      <t>タs</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題2のコードを使って8回目で処理を途中で終了するコードを作成してください。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1423" eb="1424">
+      <t>モトn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/16に作成した画面に更新機能を追加してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ニt</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6147,7 +6384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6391,6 +6628,9 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6437,8 +6677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1003300" y="22098000"/>
-          <a:ext cx="10058400" cy="5700817"/>
+          <a:off x="1003300" y="22084748"/>
+          <a:ext cx="10055639" cy="5809043"/>
           <a:chOff x="1079500" y="21678900"/>
           <a:chExt cx="10058400" cy="5700817"/>
         </a:xfrm>
@@ -11366,8 +11606,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>307494</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>2694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -15900,23 +16140,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>155223</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28222</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
+      <xdr:colOff>244086</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>217994</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
+        <xdr:cNvPr id="26" name="グループ化 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B3EB25-428A-2E43-98B7-E908F727A411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FB09DD-B120-EE4F-BE41-336D885438BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15924,10 +16164,2389 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1866900" y="25910823"/>
-          <a:ext cx="15306322" cy="9429043"/>
-          <a:chOff x="1873956" y="25371779"/>
-          <a:chExt cx="15426266" cy="9429043"/>
+          <a:off x="1905000" y="17640300"/>
+          <a:ext cx="15661886" cy="8688894"/>
+          <a:chOff x="1943101" y="25533369"/>
+          <a:chExt cx="15636486" cy="8688894"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="グループ化 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94353835-1CEC-F040-9A6A-0C868CBDEAFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1943101" y="25533369"/>
+            <a:ext cx="8783327" cy="4823859"/>
+            <a:chOff x="1828800" y="24525836"/>
+            <a:chExt cx="8783327" cy="4823859"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="35" name="グループ化 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4349B9AE-5388-3444-B79C-C2D3A68E48AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1828800" y="24525836"/>
+              <a:ext cx="8783327" cy="4823859"/>
+              <a:chOff x="1922162" y="33088161"/>
+              <a:chExt cx="9490092" cy="3213341"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="38" name="正方形/長方形 37">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827CA67B-01D8-654B-B5B9-CACD2FA6FA06}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1922162" y="33088161"/>
+                <a:ext cx="7099414" cy="3213341"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>ユーザ一覧</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>名前</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>　　　　　　　　　　　　</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>　　　　　　　　　　　　</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>ユーザー名</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a:rPr>
+                  <a:t>メールアドレス</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>パスワード</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>ワード</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="正方形/長方形 38">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F90443A-D7A8-9845-BB5E-D09C1BB0E7B6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1972975" y="33830128"/>
+                <a:ext cx="1753135" cy="246422"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>野口拓哉</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="正方形/長方形 39">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C405A02E-A45A-5043-9581-FDF0983BA3A7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4141604" y="35367597"/>
+                <a:ext cx="616227" cy="189435"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>追加</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="正方形/長方形 40">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACFE64F-42C4-3847-844A-673DD3171C97}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1983880" y="34296505"/>
+                <a:ext cx="1753135" cy="228419"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                    <a:ln w="0"/>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>noguti20</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="42" name="右矢印 41">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7815A3-C60E-A54F-B369-922C313B11BD}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9802319" y="34488452"/>
+                <a:ext cx="1609935" cy="905590"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="正方形/長方形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAF13BB-CFFE-7146-9F0C-C221F58D348C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1892300" y="27863800"/>
+              <a:ext cx="1622572" cy="342902"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>xyz789</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="正方形/長方形 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA23AC5-50E7-F14C-839E-2E348A6FF7E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1892299" y="27101799"/>
+              <a:ext cx="2379133" cy="372534"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>noguti20@example.com</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="グループ化 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509AAF13-8AB5-0B44-A0D2-7256A2AF864C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11038529" y="25565766"/>
+            <a:ext cx="6541058" cy="8656497"/>
+            <a:chOff x="11563462" y="24837636"/>
+            <a:chExt cx="6541058" cy="4423763"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="正方形/長方形 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6D7158-028C-0143-955B-D060F49DCA3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11563462" y="24837636"/>
+              <a:ext cx="6541058" cy="4423763"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>ユーザ一覧</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>名前</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>　　　　　　　　　　　　</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>　　　　　　　　　　　　</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>ユーザー名</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ワード</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>田中太郎</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:tanaka20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:tanaka20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: abc123</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>鈴木裕貴</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:suzuki20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:suzuki20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: def123</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>木村千秋</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:kimura20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>kimura20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: ghi123</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ユーザ名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>野口拓哉</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>アカウント名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:noguti20</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>メールアドレス</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> noguti</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>20@example.com</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>パスワード</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>: xyz789</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="正方形/長方形 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAA77CD-4845-3244-A917-4A17319CE3BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11633663" y="25390596"/>
+              <a:ext cx="1614105" cy="189624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="正方形/長方形 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679FD604-B485-234E-AEBD-52180A7D5381}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13564583" y="26521544"/>
+              <a:ext cx="566101" cy="174117"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>追加</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="正方形/長方形 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F0FB4D-4BAD-2D4F-A7D0-D99DFCFBBFAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11643756" y="25767995"/>
+              <a:ext cx="1614105" cy="203906"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="正方形/長方形 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F81148E-8FF5-2F43-BAB2-A7FA6E5EA4FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11650135" y="26505974"/>
+              <a:ext cx="1614105" cy="189688"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A558144D-B348-064C-9DDB-635FB19C6D44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11650134" y="26152462"/>
+              <a:ext cx="1614105" cy="185578"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FC4F2A-86B6-764D-B10B-31AC272F4038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14655800" y="27419300"/>
+          <a:ext cx="2527300" cy="2870200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形吹き出し 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56863140-2A63-0543-852B-98773C8267B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14655800" y="24803100"/>
+          <a:ext cx="4038600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29009"/>
+            <a:gd name="adj2" fmla="val 73804"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>この辺りに更新機のを追加する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デザインはお任せします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新する項目は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレス、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>888657</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>243993</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B66FE3-538E-6B4A-9E0D-D6FB7866ED7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1892300" y="12979400"/>
+          <a:ext cx="17093857" cy="9210193"/>
+          <a:chOff x="1922162" y="33052899"/>
+          <a:chExt cx="17196487" cy="9337880"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -15935,7 +18554,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B944B54A-ADAA-BF4B-8D4B-85018E249A75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD47B9E6-6C8E-DD47-B517-9EF628A82D39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15943,8 +18562,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1873956" y="25381656"/>
-            <a:ext cx="6589888" cy="3911600"/>
+            <a:off x="1922162" y="33054324"/>
+            <a:ext cx="7099414" cy="3808627"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -15992,24 +18611,8 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>月日の計算チェック</a:t>
+              <a:t>月の日数の合計チェック</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
@@ -16043,22 +18646,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>ここに月を入力して下さい</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
@@ -16072,7 +18659,7 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>。</a:t>
+              <a:t>何月から？</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
@@ -16138,6 +18725,73 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>何月まで？</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　月</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
@@ -16187,7 +18841,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF078047-DB0F-AC42-A245-96FCAA10E0C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB7764C-2323-F745-9779-2CCEEA5E8B10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16195,8 +18849,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1969911" y="26600856"/>
-            <a:ext cx="1594556" cy="330200"/>
+            <a:off x="1992717" y="34095381"/>
+            <a:ext cx="1753135" cy="321619"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16232,7 +18886,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16244,9 +18898,26 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>１</a:t>
+              <a:t>4</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -16255,7 +18926,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A98E261-4680-094C-B883-EB2DD26E8757}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A629ACD5-A3B9-6041-98E7-477FE7683A45}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16263,8 +18934,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1969911" y="27070756"/>
-            <a:ext cx="469900" cy="304800"/>
+            <a:off x="2056217" y="35563776"/>
+            <a:ext cx="469900" cy="296219"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16315,7 +18986,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6075F188-9C84-004F-91C0-419F5C4D180E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A2C8A8-E806-ED4F-ACBC-D2A44BA11143}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16323,8 +18994,93 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10710334" y="25371779"/>
-            <a:ext cx="6589888" cy="3911600"/>
+            <a:off x="2023762" y="34984038"/>
+            <a:ext cx="1753135" cy="321619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3E5452-3045-C941-B655-44C225F4CA80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12345756" y="33052899"/>
+            <a:ext cx="6738856" cy="3809667"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16372,37 +19128,8 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>月日の計算チェック</a:t>
+              <a:t>月の日数の合計チェック</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -16439,7 +19166,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16451,11 +19178,13 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>1</a:t>
+              <a:t>4</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16467,11 +19196,13 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>月から</a:t>
+              <a:t>月初日から</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16483,11 +19214,13 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>12</a:t>
+              <a:t>8</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16499,11 +19232,13 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>月までの月は</a:t>
+              <a:t>月末までの合計日数は</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16515,11 +19250,13 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>365</a:t>
+              <a:t>153</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -16531,30 +19268,22 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
               <a:t>日です。</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -16564,10 +19293,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="右矢印 6">
+          <xdr:cNvPr id="8" name="右矢印 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B04AEC9-CFBF-494E-BF48-AEAF2C9864DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239E3483-02BE-244F-B21C-0F78CB561F94}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16575,8 +19304,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8777111" y="26782889"/>
-            <a:ext cx="1566333" cy="931333"/>
+            <a:off x="9802319" y="34488452"/>
+            <a:ext cx="1609935" cy="905590"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -16609,10 +19338,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FC25AF-9AD2-EA44-B7BC-89F48D2629A1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0FBD77-1027-D54D-8548-35926B5FB187}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16620,8 +19349,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10625667" y="30889222"/>
-            <a:ext cx="6589888" cy="3911600"/>
+            <a:off x="12463890" y="38581112"/>
+            <a:ext cx="6654759" cy="3809667"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16669,771 +19398,7 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>月日の計算チェック</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>エラーです。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>から</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>12</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>の整数を入力してください。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="右矢印 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740F7C09-EE2D-614E-B01D-E84162EAD6FA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2365798">
-            <a:off x="8379147" y="29883471"/>
-            <a:ext cx="2087388" cy="931333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>931333</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>143964</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>98778</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6C287F-47C6-A345-897A-C078D1AA10CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1883833" y="13682133"/>
-          <a:ext cx="15405131" cy="8590845"/>
-          <a:chOff x="1890889" y="12954000"/>
-          <a:chExt cx="15525075" cy="8748889"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2A32DC-B594-6149-BE5D-2AAE1E72D3F3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1890889" y="12963877"/>
-            <a:ext cx="6589888" cy="3911600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>2020</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>年</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>月の曜日チェック</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>ここに</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>2020</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>年</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>月の日にちを入力して下さい</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>                                                        </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>日</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F2E41B-27FD-A541-9FD8-71DEEFFC7019}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10755489" y="12954000"/>
-            <a:ext cx="6589888" cy="3911600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>2020</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>年</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>月の曜日チェック</a:t>
+              <a:t>月の日数の合計チェック</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -17470,664 +19435,47 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>1</a:t>
+              <a:t>入力エラーです。</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>月</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>30</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>日の曜日は木曜日です。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="右矢印 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69332077-9DFE-424B-AC98-DB14DEB22744}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8822266" y="14365109"/>
-            <a:ext cx="1566333" cy="931334"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E815AF-518B-EB47-BBE6-66DD73582086}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2032000" y="14205654"/>
-            <a:ext cx="1594556" cy="330201"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>30</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="正方形/長方形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B62783-665C-1643-ACF5-98FBF8B3CD2A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2032000" y="14703777"/>
-            <a:ext cx="469900" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>結果</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B2A865-9092-6447-8768-63F456D90513}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10826076" y="18066084"/>
-            <a:ext cx="6589888" cy="3636805"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>2020</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>年</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>月の曜日チェック</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>エラーです。</a:t>
+              <a:t>月が正しいか確認してください。</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>から</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>31</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>の整数を入力してください。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="右矢印 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E42D298-6F31-9441-821B-44AC42D3E085}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2365798">
-            <a:off x="8240892" y="17596554"/>
-            <a:ext cx="2087388" cy="931333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -18436,7 +19784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
   <dimension ref="A2:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -19631,13 +20979,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D53B389-25FC-0449-B5A8-FD3E305BC70A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C5D7F-7BB9-AD44-A6AF-2AC261B50A8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165E1902-A063-4249-A5F3-0F05E4589CB0}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="38">
+      <c r="B2" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="28">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="2:2" ht="24">
+      <c r="B4" s="81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BF504-F0D1-5B46-AC03-CFC3B1E7E9EE}">
   <dimension ref="B2:K118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -20120,7 +21519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992BB4A-04F6-964A-9E3D-5EA7D0576D9A}">
   <dimension ref="B1:L121"/>
   <sheetViews>
@@ -20812,7 +22211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C306AB-362D-6441-BFF8-1D9F760044DB}">
   <dimension ref="B2:K137"/>
   <sheetViews>
@@ -21647,7 +23046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EACDB-A74E-A249-B875-2998524B77F3}">
   <dimension ref="A1:G162"/>
   <sheetViews>
@@ -22496,150 +23895,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65791EF3-E76D-6D48-AA39-045CA74E0FC4}">
-  <dimension ref="B2:K118"/>
+  <dimension ref="B2:H106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="38">
+    <row r="2" spans="2:4" ht="38">
       <c r="B2" s="24" t="s">
-        <v>109</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="5" spans="2:3" ht="24">
+    <row r="5" spans="2:4" ht="24">
       <c r="B5" s="41">
         <v>1</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="24">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="24">
       <c r="B6" s="41"/>
-      <c r="C6" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="24">
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="2:4" ht="24">
       <c r="B7" s="41"/>
       <c r="C7" s="49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="24">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24">
       <c r="B8" s="41"/>
       <c r="C8" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="24">
+        <v>345</v>
+      </c>
+      <c r="D8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24">
       <c r="B9" s="41"/>
       <c r="C9" s="49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="24">
+        <v>345</v>
+      </c>
+      <c r="D9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="24">
       <c r="B10" s="41"/>
       <c r="C10" s="49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="24">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="24">
       <c r="B11" s="41"/>
-      <c r="C11" s="49"/>
-    </row>
-    <row r="12" spans="2:3" ht="24">
+      <c r="C11" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="24">
       <c r="B12" s="41"/>
-    </row>
-    <row r="13" spans="2:3" ht="24">
-      <c r="B13" s="41">
-        <v>2</v>
-      </c>
+      <c r="C12" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24">
+      <c r="B13" s="41"/>
       <c r="C13" s="49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="24">
+        <v>345</v>
+      </c>
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="24">
       <c r="B14" s="41"/>
       <c r="C14" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="24">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="24">
       <c r="B15" s="41"/>
-      <c r="C15" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="24">
+      <c r="C15" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="24">
       <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="24">
       <c r="B17" s="41"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="2:8" ht="24">
       <c r="B18" s="41"/>
-      <c r="C18" s="49" t="s">
-        <v>118</v>
-      </c>
+      <c r="C18" s="49"/>
     </row>
     <row r="19" spans="2:8" ht="24">
-      <c r="B19" s="41"/>
-      <c r="C19" s="49" t="s">
-        <v>102</v>
+      <c r="B19" s="41">
+        <v>2</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="24">
       <c r="B20" s="41"/>
-      <c r="C20" s="49" t="s">
-        <v>112</v>
-      </c>
+      <c r="C20" s="49"/>
     </row>
     <row r="21" spans="2:8" ht="24">
       <c r="B21" s="41"/>
-      <c r="C21" s="49" t="s">
-        <v>105</v>
-      </c>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="2:8" ht="24">
-      <c r="B22" s="41"/>
-      <c r="C22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="41">
+        <v>3</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="23" spans="2:8" ht="24">
       <c r="B23" s="41"/>
-      <c r="C23" s="49" t="s">
-        <v>113</v>
-      </c>
+      <c r="C23" s="77"/>
     </row>
     <row r="24" spans="2:8" ht="24">
       <c r="B24" s="41"/>
-      <c r="C24" s="49" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="25" spans="2:8" ht="24">
-      <c r="B25" s="41"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="41">
+        <v>4</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="24">
       <c r="B26" s="41"/>
       <c r="C26" s="49" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="24">
       <c r="B27" s="41"/>
-      <c r="C27" s="49" t="s">
-        <v>107</v>
-      </c>
+      <c r="C27" s="49"/>
     </row>
     <row r="28" spans="2:8" ht="24">
       <c r="B28" s="41"/>
@@ -22647,14 +24077,14 @@
     </row>
     <row r="29" spans="2:8" ht="24">
       <c r="B29" s="41"/>
-      <c r="C29" s="49" t="s">
-        <v>115</v>
-      </c>
+      <c r="C29" s="49"/>
     </row>
     <row r="30" spans="2:8" ht="24">
-      <c r="B30" s="41"/>
+      <c r="B30" s="41">
+        <v>5</v>
+      </c>
       <c r="C30" s="49" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="24">
@@ -22664,130 +24094,163 @@
     <row r="32" spans="2:8" ht="24">
       <c r="B32" s="41"/>
       <c r="C32" s="49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="24">
+        <v>365</v>
+      </c>
+      <c r="H32" s="49"/>
+    </row>
+    <row r="33" spans="2:3" ht="24">
       <c r="B33" s="41"/>
       <c r="C33" s="49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="24">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="24">
       <c r="B34" s="41"/>
-      <c r="C34" s="49"/>
-    </row>
-    <row r="35" spans="2:10" ht="24">
+      <c r="C34" s="49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="24">
       <c r="B35" s="41"/>
       <c r="C35" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="24">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="24">
       <c r="B36" s="41"/>
-    </row>
-    <row r="37" spans="2:10" ht="34" customHeight="1">
+      <c r="C36" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="24">
       <c r="B37" s="41"/>
-    </row>
-    <row r="38" spans="2:10" ht="24">
-      <c r="B38" s="41">
-        <v>3</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="24">
+      <c r="C37" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="24">
+      <c r="B38" s="41"/>
+      <c r="C38" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="24">
       <c r="B39" s="41"/>
-      <c r="C39" s="43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="27">
+      <c r="C39" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="24">
       <c r="B40" s="41"/>
-      <c r="C40" s="44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="27">
+      <c r="C40" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="24">
       <c r="B41" s="41"/>
-      <c r="C41" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="24">
-      <c r="B42" s="41"/>
-    </row>
-    <row r="43" spans="2:10" ht="24">
+      <c r="C41" s="49"/>
+    </row>
+    <row r="42" spans="2:3" ht="24">
+      <c r="B42" s="41">
+        <v>6</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="24">
       <c r="B43" s="41"/>
-    </row>
-    <row r="44" spans="2:10" ht="24">
+      <c r="C43" s="43"/>
+    </row>
+    <row r="44" spans="2:3" ht="24">
       <c r="B44" s="41"/>
     </row>
-    <row r="45" spans="2:10" ht="24">
+    <row r="45" spans="2:3" ht="24">
       <c r="B45" s="41"/>
-    </row>
-    <row r="46" spans="2:10" ht="24">
+      <c r="C45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="24">
       <c r="B46" s="41"/>
-    </row>
-    <row r="47" spans="2:10" ht="24">
+      <c r="C46" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="24">
       <c r="B47" s="41"/>
-    </row>
-    <row r="48" spans="2:10" ht="24">
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="24">
       <c r="B48" s="41"/>
-      <c r="J48" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="24">
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="24">
       <c r="B49" s="41"/>
-    </row>
-    <row r="50" spans="2:11" ht="24">
+      <c r="C49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="24">
       <c r="B50" s="41"/>
-    </row>
-    <row r="51" spans="2:11" ht="24">
+      <c r="C50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="24">
       <c r="B51" s="41"/>
-    </row>
-    <row r="52" spans="2:11" ht="24">
+      <c r="C51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="24">
       <c r="B52" s="41"/>
     </row>
-    <row r="53" spans="2:11" ht="24">
+    <row r="53" spans="2:3" ht="24">
       <c r="B53" s="41"/>
     </row>
-    <row r="54" spans="2:11" ht="24">
-      <c r="B54" s="41"/>
-    </row>
-    <row r="55" spans="2:11" ht="24">
+    <row r="54" spans="2:3" ht="24">
+      <c r="B54" s="41">
+        <v>7</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="24">
       <c r="B55" s="41"/>
-    </row>
-    <row r="56" spans="2:11" ht="24">
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="2:3" ht="24">
       <c r="B56" s="41"/>
-    </row>
-    <row r="57" spans="2:11" ht="24">
+      <c r="C56" s="52"/>
+    </row>
+    <row r="57" spans="2:3" ht="24">
       <c r="B57" s="41"/>
     </row>
-    <row r="58" spans="2:11" ht="24">
+    <row r="58" spans="2:3" ht="24">
       <c r="B58" s="41"/>
     </row>
-    <row r="59" spans="2:11" ht="24">
+    <row r="59" spans="2:3" ht="24">
       <c r="B59" s="41"/>
-      <c r="K59" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="24">
+    </row>
+    <row r="60" spans="2:3" ht="24">
       <c r="B60" s="41"/>
     </row>
-    <row r="61" spans="2:11" ht="24">
+    <row r="61" spans="2:3" ht="24">
       <c r="B61" s="41"/>
     </row>
-    <row r="62" spans="2:11" ht="24">
+    <row r="62" spans="2:3" ht="24">
       <c r="B62" s="41"/>
     </row>
-    <row r="63" spans="2:11" ht="24">
+    <row r="63" spans="2:3" ht="24">
       <c r="B63" s="41"/>
     </row>
-    <row r="64" spans="2:11" ht="24">
+    <row r="64" spans="2:3" ht="24">
       <c r="B64" s="41"/>
     </row>
     <row r="65" spans="2:3" ht="24">
@@ -22830,157 +24293,192 @@
       <c r="B77" s="41"/>
     </row>
     <row r="78" spans="2:3" ht="24">
-      <c r="B78" s="41">
-        <v>4</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>88</v>
-      </c>
+      <c r="B78" s="41"/>
     </row>
     <row r="79" spans="2:3" ht="24">
       <c r="B79" s="41"/>
-      <c r="C79" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" ht="27">
-      <c r="B80" s="40"/>
-      <c r="C80" s="44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" ht="27">
-      <c r="C81" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10">
-      <c r="J90" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11">
-      <c r="K102" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="3:11" s="45" customFormat="1">
-      <c r="C104" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" s="46"/>
-    </row>
-    <row r="105" spans="3:11" s="45" customFormat="1">
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-    </row>
-    <row r="106" spans="3:11">
-      <c r="C106" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="3:11">
-      <c r="C107" s="39">
-        <v>1</v>
-      </c>
-      <c r="D107" s="39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="3:11">
-      <c r="C108" s="39">
-        <v>2</v>
-      </c>
-      <c r="D108" s="39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="3:11">
-      <c r="C109" s="39">
-        <v>3</v>
-      </c>
-      <c r="D109" s="39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="3:11">
-      <c r="C110" s="39">
-        <v>4</v>
-      </c>
-      <c r="D110" s="39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="3:11">
-      <c r="C111" s="39">
-        <v>5</v>
-      </c>
-      <c r="D111" s="39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="3:11">
-      <c r="C112" s="39">
-        <v>6</v>
-      </c>
-      <c r="D112" s="39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="39">
-        <v>7</v>
-      </c>
-      <c r="D113" s="39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="39">
-        <v>8</v>
-      </c>
-      <c r="D114" s="39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="39">
-        <v>9</v>
-      </c>
-      <c r="D115" s="39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="39">
-        <v>10</v>
-      </c>
-      <c r="D116" s="39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="39">
-        <v>11</v>
-      </c>
-      <c r="D117" s="39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="39">
-        <v>12</v>
-      </c>
-      <c r="D118" s="39">
-        <v>31</v>
-      </c>
+      <c r="C79" s="43"/>
+    </row>
+    <row r="80" spans="2:3" ht="24">
+      <c r="B80" s="41"/>
+      <c r="C80" s="43"/>
+    </row>
+    <row r="81" spans="2:3" ht="27">
+      <c r="B81" s="40"/>
+      <c r="C81" s="44"/>
+    </row>
+    <row r="82" spans="2:3" ht="27">
+      <c r="C82" s="44"/>
+    </row>
+    <row r="105" spans="2:5" s="45" customFormat="1">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="2:5" s="45" customFormat="1">
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08DFFAF-9AB1-DA4E-A340-B6B09D2C17FA}">
+  <dimension ref="B48:E84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="48" spans="2:3" ht="24">
+      <c r="B48" s="41">
+        <v>4</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="24">
+      <c r="B49" s="41"/>
+      <c r="C49" s="43"/>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="39">
+        <v>1</v>
+      </c>
+      <c r="E73" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="39">
+        <v>2</v>
+      </c>
+      <c r="E74" s="39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="39">
+        <v>3</v>
+      </c>
+      <c r="E75" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="39">
+        <v>4</v>
+      </c>
+      <c r="E76" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="39">
+        <v>5</v>
+      </c>
+      <c r="E77" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="39">
+        <v>6</v>
+      </c>
+      <c r="E78" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="39">
+        <v>7</v>
+      </c>
+      <c r="E79" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="39">
+        <v>8</v>
+      </c>
+      <c r="E80" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="39">
+        <v>9</v>
+      </c>
+      <c r="E81" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="39">
+        <v>10</v>
+      </c>
+      <c r="E82" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="39">
+        <v>11</v>
+      </c>
+      <c r="E83" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="39">
+        <v>12</v>
+      </c>
+      <c r="E84" s="39">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18DF0D0-94D6-234E-9FD7-95B1ADBB6C59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/to_栗林さん/宿題(hw).xlsx
+++ b/to_栗林さん/宿題(hw).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5AC1A4-2325-9347-A456-CB7EEC4C5A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{AF6181D1-1CFE-BF40-AB4D-CFF7286CC575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="0920" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="384">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -5838,7 +5839,7 @@
   </si>
   <si>
     <t>下記のような九九表を作成してください。</t>
-    <rPh sb="99" eb="101">
+    <rPh sb="0" eb="19">
       <t>９９hy</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -5903,10 +5904,7 @@
   <si>
     <t>問題2のコードを使って8回目で処理を途中で終了するコードを作成してください。</t>
     <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="1423" eb="1424">
-      <t>モトn</t>
+      <t>カモトn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5916,13 +5914,49 @@
       <t>ニt</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 画面には「55」が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 画面には「28」が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 画面には以下のように表示する</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4の段: 4| 8| 12| 16| 20| 24| 28| 32| 36| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7の段: 7| 14| 21| 28| 35| 42| 49| 56| 63| </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6165,6 +6199,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6384,7 +6426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6631,6 +6673,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6677,8 +6722,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1003300" y="22084748"/>
-          <a:ext cx="10055639" cy="5809043"/>
+          <a:off x="1003300" y="22098000"/>
+          <a:ext cx="10058400" cy="5700817"/>
           <a:chOff x="1079500" y="21678900"/>
           <a:chExt cx="10058400" cy="5700817"/>
         </a:xfrm>
@@ -16142,13 +16187,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>244086</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>217994</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16164,7 +16209,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1905000" y="17640300"/>
+          <a:off x="1905000" y="18554700"/>
           <a:ext cx="15661886" cy="8688894"/>
           <a:chOff x="1943101" y="25533369"/>
           <a:chExt cx="15636486" cy="8688894"/>
@@ -18244,13 +18289,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18326,13 +18371,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19784,7 +19829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
   <dimension ref="A2:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -23897,7 +23942,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65791EF3-E76D-6D48-AA39-045CA74E0FC4}">
-  <dimension ref="B2:H106"/>
+  <dimension ref="B2:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24014,15 +24059,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="24">
+    <row r="17" spans="2:3" ht="24">
       <c r="B17" s="41"/>
       <c r="C17" s="49"/>
     </row>
-    <row r="18" spans="2:8" ht="24">
+    <row r="18" spans="2:3" ht="24">
       <c r="B18" s="41"/>
       <c r="C18" s="49"/>
     </row>
-    <row r="19" spans="2:8" ht="24">
+    <row r="19" spans="2:3" ht="24">
       <c r="B19" s="41">
         <v>2</v>
       </c>
@@ -24030,15 +24075,17 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="24">
+    <row r="20" spans="2:3" ht="24">
       <c r="B20" s="41"/>
-      <c r="C20" s="49"/>
-    </row>
-    <row r="21" spans="2:8" ht="24">
+      <c r="C20" s="49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="24">
       <c r="B21" s="41"/>
       <c r="C21" s="49"/>
     </row>
-    <row r="22" spans="2:8" ht="24">
+    <row r="22" spans="2:3" ht="24">
       <c r="B22" s="41">
         <v>3</v>
       </c>
@@ -24046,14 +24093,16 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="24">
+    <row r="23" spans="2:3" ht="24">
       <c r="B23" s="41"/>
-      <c r="C23" s="77"/>
-    </row>
-    <row r="24" spans="2:8" ht="24">
+      <c r="C23" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="24">
       <c r="B24" s="41"/>
     </row>
-    <row r="25" spans="2:8" ht="24">
+    <row r="25" spans="2:3" ht="24">
       <c r="B25" s="41">
         <v>4</v>
       </c>
@@ -24061,182 +24110,191 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="24">
+    <row r="26" spans="2:3" ht="24">
       <c r="B26" s="41"/>
       <c r="C26" s="49" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="24">
+    <row r="27" spans="2:3" ht="24">
       <c r="B27" s="41"/>
       <c r="C27" s="49"/>
     </row>
-    <row r="28" spans="2:8" ht="24">
+    <row r="28" spans="2:3" ht="24">
       <c r="B28" s="41"/>
-      <c r="C28" s="49"/>
-    </row>
-    <row r="29" spans="2:8" ht="24">
+      <c r="C28" s="49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="24">
       <c r="B29" s="41"/>
-      <c r="C29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" ht="24">
-      <c r="B30" s="41">
-        <v>5</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="24">
+      <c r="C29" s="82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="24">
+      <c r="B30" s="41"/>
+      <c r="C30" s="82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="24">
       <c r="B31" s="41"/>
       <c r="C31" s="49"/>
     </row>
-    <row r="32" spans="2:8" ht="24">
+    <row r="32" spans="2:3" ht="24">
       <c r="B32" s="41"/>
-      <c r="C32" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="H32" s="49"/>
-    </row>
-    <row r="33" spans="2:3" ht="24">
-      <c r="B33" s="41"/>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="2:8" ht="24">
+      <c r="B33" s="41">
+        <v>5</v>
+      </c>
       <c r="C33" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="24">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="24">
       <c r="B34" s="41"/>
-      <c r="C34" s="49" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="24">
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="2:8" ht="24">
       <c r="B35" s="41"/>
       <c r="C35" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="24">
+        <v>365</v>
+      </c>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="2:8" ht="24">
       <c r="B36" s="41"/>
       <c r="C36" s="49" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="24">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="24">
       <c r="B37" s="41"/>
       <c r="C37" s="49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="24">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="24">
       <c r="B38" s="41"/>
       <c r="C38" s="49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="24">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="24">
       <c r="B39" s="41"/>
       <c r="C39" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="24">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="24">
       <c r="B40" s="41"/>
       <c r="C40" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="24">
+      <c r="B41" s="41"/>
+      <c r="C41" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="24">
+      <c r="B42" s="41"/>
+      <c r="C42" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="24">
+      <c r="B43" s="41"/>
+      <c r="C43" s="49" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="24">
-      <c r="B41" s="41"/>
-      <c r="C41" s="49"/>
-    </row>
-    <row r="42" spans="2:3" ht="24">
-      <c r="B42" s="41">
+    <row r="44" spans="2:8" ht="24">
+      <c r="B44" s="41"/>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="2:8" ht="24">
+      <c r="B45" s="41">
         <v>6</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C45" s="43" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="24">
-      <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
-    </row>
-    <row r="44" spans="2:3" ht="24">
-      <c r="B44" s="41"/>
-    </row>
-    <row r="45" spans="2:3" ht="24">
-      <c r="B45" s="41"/>
-      <c r="C45" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="24">
+    <row r="46" spans="2:8" ht="24">
       <c r="B46" s="41"/>
-      <c r="C46" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="24">
+      <c r="C46" s="43"/>
+    </row>
+    <row r="47" spans="2:8" ht="24">
       <c r="B47" s="41"/>
-      <c r="C47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="24">
+    </row>
+    <row r="48" spans="2:8" ht="24">
       <c r="B48" s="41"/>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="24">
       <c r="B49" s="41"/>
       <c r="C49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="24">
       <c r="B50" s="41"/>
       <c r="C50" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="24">
       <c r="B51" s="41"/>
       <c r="C51" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="24">
       <c r="B52" s="41"/>
+      <c r="C52" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="53" spans="2:3" ht="24">
       <c r="B53" s="41"/>
+      <c r="C53" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="54" spans="2:3" ht="24">
-      <c r="B54" s="41">
-        <v>7</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>378</v>
+      <c r="B54" s="41"/>
+      <c r="C54" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="24">
       <c r="B55" s="41"/>
-      <c r="C55" s="52"/>
     </row>
     <row r="56" spans="2:3" ht="24">
       <c r="B56" s="41"/>
-      <c r="C56" s="52"/>
     </row>
     <row r="57" spans="2:3" ht="24">
-      <c r="B57" s="41"/>
+      <c r="B57" s="41">
+        <v>7</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="58" spans="2:3" ht="24">
       <c r="B58" s="41"/>
+      <c r="C58" s="52"/>
     </row>
     <row r="59" spans="2:3" ht="24">
       <c r="B59" s="41"/>
+      <c r="C59" s="52"/>
     </row>
     <row r="60" spans="2:3" ht="24">
       <c r="B60" s="41"/>
@@ -24253,74 +24311,83 @@
     <row r="64" spans="2:3" ht="24">
       <c r="B64" s="41"/>
     </row>
-    <row r="65" spans="2:3" ht="24">
+    <row r="65" spans="2:2" ht="24">
       <c r="B65" s="41"/>
     </row>
-    <row r="66" spans="2:3" ht="24">
+    <row r="66" spans="2:2" ht="24">
       <c r="B66" s="41"/>
     </row>
-    <row r="67" spans="2:3" ht="24">
+    <row r="67" spans="2:2" ht="24">
       <c r="B67" s="41"/>
     </row>
-    <row r="68" spans="2:3" ht="24">
+    <row r="68" spans="2:2" ht="24">
       <c r="B68" s="41"/>
     </row>
-    <row r="69" spans="2:3" ht="24">
+    <row r="69" spans="2:2" ht="24">
       <c r="B69" s="41"/>
     </row>
-    <row r="70" spans="2:3" ht="24">
+    <row r="70" spans="2:2" ht="24">
       <c r="B70" s="41"/>
     </row>
-    <row r="71" spans="2:3" ht="24">
+    <row r="71" spans="2:2" ht="24">
       <c r="B71" s="41"/>
     </row>
-    <row r="72" spans="2:3" ht="24">
+    <row r="72" spans="2:2" ht="24">
       <c r="B72" s="41"/>
     </row>
-    <row r="73" spans="2:3" ht="24">
+    <row r="73" spans="2:2" ht="24">
       <c r="B73" s="41"/>
     </row>
-    <row r="74" spans="2:3" ht="24">
+    <row r="74" spans="2:2" ht="24">
       <c r="B74" s="41"/>
     </row>
-    <row r="75" spans="2:3" ht="24">
+    <row r="75" spans="2:2" ht="24">
       <c r="B75" s="41"/>
     </row>
-    <row r="76" spans="2:3" ht="24">
+    <row r="76" spans="2:2" ht="24">
       <c r="B76" s="41"/>
     </row>
-    <row r="77" spans="2:3" ht="24">
+    <row r="77" spans="2:2" ht="24">
       <c r="B77" s="41"/>
     </row>
-    <row r="78" spans="2:3" ht="24">
+    <row r="78" spans="2:2" ht="24">
       <c r="B78" s="41"/>
     </row>
-    <row r="79" spans="2:3" ht="24">
+    <row r="79" spans="2:2" ht="24">
       <c r="B79" s="41"/>
-      <c r="C79" s="43"/>
-    </row>
-    <row r="80" spans="2:3" ht="24">
+    </row>
+    <row r="80" spans="2:2" ht="24">
       <c r="B80" s="41"/>
-      <c r="C80" s="43"/>
-    </row>
-    <row r="81" spans="2:3" ht="27">
-      <c r="B81" s="40"/>
-      <c r="C81" s="44"/>
-    </row>
-    <row r="82" spans="2:3" ht="27">
-      <c r="C82" s="44"/>
-    </row>
-    <row r="105" spans="2:5" s="45" customFormat="1">
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="2:5" s="45" customFormat="1">
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
+    </row>
+    <row r="81" spans="2:3" ht="24">
+      <c r="B81" s="41"/>
+    </row>
+    <row r="82" spans="2:3" ht="24">
+      <c r="B82" s="41"/>
+      <c r="C82" s="43"/>
+    </row>
+    <row r="83" spans="2:3" ht="24">
+      <c r="B83" s="41"/>
+      <c r="C83" s="43"/>
+    </row>
+    <row r="84" spans="2:3" ht="27">
+      <c r="B84" s="40"/>
+      <c r="C84" s="44"/>
+    </row>
+    <row r="85" spans="2:3" ht="27">
+      <c r="C85" s="44"/>
+    </row>
+    <row r="108" spans="2:5" s="45" customFormat="1">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="2:5" s="45" customFormat="1">
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
